--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\src\main\resources\root\jp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2334,7 +2334,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2357,6 +2357,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2552,7 +2558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2607,9 +2613,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2644,6 +2647,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2998,11 +3022,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T97"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3024,1117 +3046,2523 @@
     <col min="21" max="1030" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C15" s="19" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C16" s="22" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="31"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="24"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="31" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="31" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="31" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="31" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="31" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="31" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="31" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="31" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31" t="s">
         <v>568</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="31" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="31" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="1"/>
-      <c r="C39" s="18" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18" t="s">
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="31"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="U40" s="31"/>
+    </row>
+    <row r="41" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="3">
+      <c r="U41" s="31"/>
+    </row>
+    <row r="42" spans="1:21" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="35">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B43" s="4">
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="31"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="36">
         <v>2</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B44" s="4">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="31"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="36">
         <v>3</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B45" s="4">
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="31"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="36">
         <v>4</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B46" s="4">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="31"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="36">
         <v>5</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B47" s="4">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="31"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="36">
         <v>6</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B48" s="4">
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="31"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="36">
         <v>7</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B49" s="4">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="31"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="36">
         <v>8</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B50" s="4">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="31"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="36">
         <v>9</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B51" s="4">
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="31"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
+      <c r="B51" s="36">
         <v>10</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="31"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" s="31" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C57" s="25" t="s">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="27"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="31"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C61" s="19" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="21"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="30"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C63" s="28" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="31"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="31"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="30"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C64" s="28" t="s">
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="31"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="30"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C65" s="28" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="31"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="30"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="30"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C67" s="28" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="31"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="31"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="30"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="30"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C69" s="28" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="31"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="31"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="30"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C70" s="28" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="31"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="30"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C71" s="28" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="31"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="30"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="30"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C73" s="28" t="s">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="31"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="31"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="30"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="30"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C75" s="28" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="31"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="31"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="30"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C76" s="22" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="31"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="24"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="31"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" s="31" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C82" s="25" t="s">
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
-      <c r="T82" s="27"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="31"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A84" s="31" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
+      <c r="T85" s="31"/>
+      <c r="U85" s="31"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C88" s="25" t="s">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="26"/>
-      <c r="T88" s="27"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="26"/>
+      <c r="U88" s="31"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
+      <c r="T90" s="31"/>
+      <c r="U90" s="31"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A91" s="31"/>
+      <c r="B91" s="31" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C93" s="25" t="s">
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="31"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="27"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="31"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="31"/>
+      <c r="T94" s="31"/>
+      <c r="U94" s="31"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C97" s="25" t="s">
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
+      <c r="R95" s="31"/>
+      <c r="S95" s="31"/>
+      <c r="T95" s="31"/>
+      <c r="U95" s="31"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="31"/>
+      <c r="T96" s="31"/>
+      <c r="U96" s="31"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="26"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="26"/>
-      <c r="T97" s="27"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="31"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="31"/>
+      <c r="T98" s="31"/>
+      <c r="U98" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4183,30 +5611,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="639">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -1934,6 +1934,42 @@
   <si>
     <t>notepad++ .\config\config.groovy</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>chassis.productname</t>
+  </si>
+  <si>
+    <t>chassis.productid</t>
+  </si>
+  <si>
+    <t>chassis.sn</t>
+  </si>
+  <si>
+    <t>HSI_SPN</t>
+  </si>
+  <si>
+    <t>HSI_PRODUCTID</t>
+  </si>
+  <si>
+    <t>HSI_SBSN</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2042,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2151,8 +2187,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2461,6 +2509,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2473,7 +2536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2585,13 +2648,28 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3110,7 +3188,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3213,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3238,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="25" t="s">
         <v>7</v>
       </c>
@@ -4144,30 +4222,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37" t="s">
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
       <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -5882,30 +5960,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6557,29 +6635,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W16"/>
+  <dimension ref="A3:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="29.125" customWidth="1"/>
-    <col min="17" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="29.125" customWidth="1"/>
-    <col min="21" max="21" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="1034" width="8.75" customWidth="1"/>
+    <col min="2" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="18" width="21.25" customWidth="1"/>
+    <col min="19" max="19" width="29.125" customWidth="1"/>
+    <col min="20" max="21" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="29.125" customWidth="1"/>
+    <col min="24" max="24" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="24.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="1037" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -6592,65 +6672,74 @@
       <c r="D3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>155</v>
       </c>
@@ -6663,9 +6752,9 @@
       <c r="D4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -6679,268 +6768,307 @@
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="Y4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="Z4" s="31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="K5" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="L6" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="M6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="N6" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="Q6" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="R6" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="S6" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="V6" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="W6" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31" t="s">
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="I7" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="J7" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="K7" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="L7" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="M7" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="N7" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="Q7" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="R7" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="S7" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30" t="s">
+      <c r="T7" s="30"/>
+      <c r="U7" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
       <c r="V7" s="30"/>
-      <c r="W7" s="31" t="s">
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>638</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="30" t="s">
-        <v>187</v>
-      </c>
+      <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="O8" s="30" t="s">
+        <v>187</v>
+      </c>
       <c r="P8" s="30"/>
-      <c r="Q8" s="30" t="s">
-        <v>188</v>
-      </c>
+      <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
+      <c r="T8" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
-      <c r="W8" s="31" t="s">
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="30" t="s">
-        <v>190</v>
-      </c>
+      <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="O9" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="P9" s="30"/>
-      <c r="Q9" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
+      <c r="T9" s="30" t="s">
+        <v>191</v>
+      </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="E10" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>635</v>
+      </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="34" t="s">
-        <v>194</v>
-      </c>
+      <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="34" t="s">
+        <v>194</v>
+      </c>
       <c r="P10" s="34"/>
-      <c r="Q10" s="34" t="s">
-        <v>195</v>
-      </c>
+      <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="T10" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -6957,15 +7085,18 @@
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -6982,15 +7113,18 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -7007,15 +7141,18 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7032,15 +7169,18 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7057,15 +7197,18 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -7082,6 +7225,9 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="643">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -676,9 +676,6 @@
     <t>vCenter</t>
   </si>
   <si>
-    <t>VMWare リソース割り当ての検索</t>
-  </si>
-  <si>
     <t>├─CPU割り当て数</t>
   </si>
   <si>
@@ -724,69 +721,45 @@
     <t>データストア</t>
   </si>
   <si>
-    <t>データストアパスの取得</t>
-  </si>
-  <si>
     <t>VMNetwork</t>
   </si>
   <si>
     <t>ネットワーク・アダプタ</t>
   </si>
   <si>
-    <t>ネットワーク・アダプタの取得</t>
-  </si>
-  <si>
     <t>vmwaretool</t>
   </si>
   <si>
     <t>VMWare ツール</t>
   </si>
   <si>
-    <t>VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
     <t>vm_timesync</t>
   </si>
   <si>
     <t>VMWare 時刻同期</t>
   </si>
   <si>
-    <t>VMWare 時刻同期の有無</t>
-  </si>
-  <si>
     <t>vm_iops_limit</t>
   </si>
   <si>
     <t>ストレージIOPS制限</t>
   </si>
   <si>
-    <t>ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
     <t>vm_storage</t>
   </si>
   <si>
     <t>ストレージ構成</t>
   </si>
   <si>
-    <t>ストレージ構成情報検索</t>
-  </si>
-  <si>
     <t>hostname</t>
   </si>
   <si>
-    <t>ホスト名の検索</t>
-  </si>
-  <si>
     <t>hostname_fqdn</t>
   </si>
   <si>
     <t>FQDN名</t>
   </si>
   <si>
-    <t>FQDN名の検索</t>
-  </si>
-  <si>
     <t>uname</t>
   </si>
   <si>
@@ -808,9 +781,6 @@
     <t>OSバージョン</t>
   </si>
   <si>
-    <t>Linux OSディストリビューションを検索</t>
-  </si>
-  <si>
     <t>OSディストリビューション</t>
   </si>
   <si>
@@ -824,9 +794,6 @@
   </si>
   <si>
     <t>CPU情報</t>
-  </si>
-  <si>
-    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
   </si>
   <si>
     <t>model_name</t>
@@ -885,9 +852,6 @@
     <t>メモリ情報</t>
   </si>
   <si>
-    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
     <t>├─メモリ総容量</t>
   </si>
   <si>
@@ -906,9 +870,6 @@
     <t>ネットワーク情報</t>
   </si>
   <si>
-    <t>/sbin/ip addr'コマンドでネットワーク構成を検索</t>
-  </si>
-  <si>
     <t>├─IPアドレス</t>
   </si>
   <si>
@@ -933,24 +894,15 @@
     <t>ネットワークブート</t>
   </si>
   <si>
-    <t>/etc/sysconfig/network-scriptsからネットワークブート構成検索</t>
-  </si>
-  <si>
     <t>デフォルトゲートウェイ</t>
   </si>
   <si>
-    <t>/sbin/ip route'コマンドでデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
     <t>net_bond</t>
   </si>
   <si>
     <t>NICの冗長化(bonding設定)</t>
   </si>
   <si>
-    <t>/etc/sysconfig/network-scripts/*-bond*からNIC冗長設定検索</t>
-  </si>
-  <si>
     <t>block_device</t>
   </si>
   <si>
@@ -966,25 +918,15 @@
     <t>ディスクRAID</t>
   </si>
   <si>
-    <t>"/proc/mdstat" からmd([0-9]+)デバイスを取得。
-"mdadm --detail /dev/#{device}" を実行して、結果を取得。</t>
-  </si>
-  <si>
     <t>ファイルシステム</t>
   </si>
   <si>
-    <t>"/bin/lsblk -i"コマンドを実行して行数を検索</t>
-  </si>
-  <si>
     <t>filesystem./</t>
   </si>
   <si>
     <t>├─ルート(/)マウントポイント</t>
   </si>
   <si>
-    <t>ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
     <t>filesystem.[SWAP]</t>
   </si>
   <si>
@@ -1018,9 +960,6 @@
     <t>論理ボリューム情報</t>
   </si>
   <si>
-    <t>mountコマンドで、/dev/mapper/下のボリュームを検索</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -1030,9 +969,6 @@
     <t>ユーザ情報</t>
   </si>
   <si>
-    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
     <t>user.zabbix</t>
   </si>
   <si>
@@ -1048,37 +984,24 @@
     <t>ログオンテスト</t>
   </si>
   <si>
-    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
     <t>fips</t>
   </si>
   <si>
     <t>データの暗号化</t>
   </si>
   <si>
-    <t>以下ファイルを読んで、データ暗号化の有無を確認
-/proc/sys/crypto/fips_enabled</t>
-  </si>
-  <si>
     <t>virturization</t>
   </si>
   <si>
     <t>仮想化プラットフォーム</t>
   </si>
   <si>
-    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
     <t>サービス構成</t>
   </si>
   <si>
-    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
     <t>service.kdump</t>
   </si>
   <si>
@@ -1155,9 +1078,6 @@
   </si>
   <si>
     <t>パッケージ構成</t>
-  </si>
-  <si>
-    <t>rpm -qa でパッケージ情報取得</t>
   </si>
   <si>
     <t>packages.requirements</t>
@@ -1266,9 +1186,6 @@
     <t>ISOマウントの有無</t>
   </si>
   <si>
-    <t>mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
     <t>proxy_global</t>
   </si>
   <si>
@@ -1302,9 +1219,6 @@
     <t>ランレベル</t>
   </si>
   <si>
-    <t>OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索</t>
-  </si>
-  <si>
     <t>└─コンソール</t>
   </si>
   <si>
@@ -1353,18 +1267,12 @@
     <t>NTPサーバ名</t>
   </si>
   <si>
-    <t>NTPサーバの検索</t>
-  </si>
-  <si>
     <t>ntp_slew</t>
   </si>
   <si>
     <t>NTP slewモードの検索</t>
   </si>
   <si>
-    <t>/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
-  </si>
-  <si>
     <t>snmp_trap</t>
   </si>
   <si>
@@ -1380,9 +1288,6 @@
     <t>SELinuxステータス</t>
   </si>
   <si>
-    <t>sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
     <t>se_mode</t>
   </si>
   <si>
@@ -1401,36 +1306,21 @@
     <t>Syslogエラー</t>
   </si>
   <si>
-    <t>Syslogメッセージでerror,warning,failedを含む行を抽出</t>
-  </si>
-  <si>
     <t>oracle_module</t>
   </si>
   <si>
     <t>Oracleインストーラの有無</t>
   </si>
   <si>
-    <t>/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
     <t>oracle</t>
   </si>
   <si>
     <t>Oracleモジュールの有無</t>
   </si>
   <si>
-    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
     <t>Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
@@ -1446,9 +1336,6 @@
     <t>memory</t>
   </si>
   <si>
-    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
     <t>├─物理メモリ量</t>
   </si>
   <si>
@@ -1479,9 +1366,6 @@
     <t>システム情報</t>
   </si>
   <si>
-    <t>Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
@@ -1521,9 +1405,6 @@
     <t>OS情報</t>
   </si>
   <si>
-    <t>Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
     <t>├─OS名</t>
   </si>
   <si>
@@ -1560,15 +1441,9 @@
     <t>ドライバー</t>
   </si>
   <si>
-    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>ディスク容量</t>
   </si>
   <si>
-    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>filesystem.C</t>
   </si>
   <si>
@@ -1587,15 +1462,9 @@
     <t>Dドライブ容量</t>
   </si>
   <si>
-    <t>Win32_UserAccount から、ローカルアカウントのロック情報を検索</t>
-  </si>
-  <si>
     <t>config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
   </si>
   <si>
-    <t>Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
     <t>service.VMTools</t>
   </si>
   <si>
@@ -1614,18 +1483,9 @@
     <t>Windows Update サービス</t>
   </si>
   <si>
-    <t>パッケージ情報取得</t>
-  </si>
-  <si>
     <t>システム暗号化</t>
   </si>
   <si>
-    <t>システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>network.ip</t>
   </si>
   <si>
@@ -1647,36 +1507,24 @@
     <t>NICチーミング(NetLBFO)設定</t>
   </si>
   <si>
-    <t>NICチーミング(NetLBFO)名を検索</t>
-  </si>
-  <si>
     <t>network_profile</t>
   </si>
   <si>
     <t>ネットワークプロファイル</t>
   </si>
   <si>
-    <t>ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
-  </si>
-  <si>
     <t>remote_desktop</t>
   </si>
   <si>
     <t>リモートデスクトップ接続許可設定</t>
   </si>
   <si>
-    <t>リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
-  </si>
-  <si>
     <t>firewall</t>
   </si>
   <si>
     <t>ファイヤーウォール</t>
   </si>
   <si>
-    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>dns</t>
   </si>
   <si>
@@ -1686,18 +1534,12 @@
     <t>virturalization</t>
   </si>
   <si>
-    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
     <t>storage_timeout</t>
   </si>
   <si>
     <t>ストレージタイムアウト値</t>
   </si>
   <si>
-    <t>ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
     <t>NTPサーバ情報</t>
   </si>
   <si>
@@ -1707,18 +1549,12 @@
     <t>タスクスケジューラ</t>
   </si>
   <si>
-    <t>Windows タスクスケジューラ構成</t>
-  </si>
-  <si>
     <t>etc_hosts</t>
   </si>
   <si>
     <t>hostsファイル</t>
   </si>
   <si>
-    <t>hostsファイル検索</t>
-  </si>
-  <si>
     <t>ie_version</t>
   </si>
   <si>
@@ -1731,25 +1567,16 @@
     <t>Windows機能</t>
   </si>
   <si>
-    <t>インストールされたWindows機能</t>
-  </si>
-  <si>
     <t>system_log</t>
   </si>
   <si>
     <t>Windowsシステムイベントログ</t>
   </si>
   <si>
-    <t>Windowsシステムイベントログから、エラーを抽出</t>
-  </si>
-  <si>
     <t>apps_log</t>
   </si>
   <si>
     <t>Windowsアプリイベントログ</t>
-  </si>
-  <si>
-    <t>Windowsアプリイベントログから、エラーを抽出</t>
   </si>
   <si>
     <t>net_dev:k</t>
@@ -1970,6 +1797,350 @@
   </si>
   <si>
     <t>HSI_SBSN</t>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、ストレージリソースのIOPS制限値を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VM コマンドで、VMWare リソース割り当てを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク・アダプタを検索</t>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Datastore コマンドで、データストアパスを検索</t>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VM コマンドで、VMWare ツールの有無、バージョンを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VM コマンドで、VMWare 時刻同期の有無を検索</t>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Harddisk コマンドで、ストレージ構成情報検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>hostname -s　コマンドで、ホスト名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>hostname --fqdn コマンドで、FQDN名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>uname -a コマンドで、OSカーネルバージョンを検索</t>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>cat /etc/*-release コマンドで、Linux OSディストリビューションを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索し,プロセッサ構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/meminfo を検索してメモリ構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/sbin/ip addr コマンドで、ネットワーク構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/sbin/ip route コマンドで、デフォルトゲートウェイアドレスを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/ からNIC冗長設定を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts からネットワークブート構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/mdstat からmd([0-9]+)デバイスを取得。
+"mdadm --detail /dev/#{device}" を実行して、結果を取得。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/bin/lsblk -i　コマンドで、マウントポイント構成を検索</t>
+    <rPh sb="28" eb="30">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mountコマンドで、/dev/mapper/下のLVMボリュームを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/passwd を検索して、ユーザ名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>config.groovy に記述したログオン検査用ユーザでssh疎通を確認</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索して、XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>rpm -qa コマンドで、パッケージ情報検索</t>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント有無検索</t>
+    <rPh sb="24" eb="26">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/inittabから、OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/keyboard、/etc/vconsole.conf からキーボード配列を検索</t>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/cmdline からOS言語を検索</t>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/clock からタイムゾーンを検索</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/ntp.conf から、NTPサーバを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/ntpd から、NTP設定を検索。設定しない＝「-u」、設定する「-x」</t>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>sestatus コマンドで、SELinux ステータスを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/var/log/messages から error,warning,failed を含む行を検索</t>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/root/package の下にOracleインストールファイルがあるかを検索</t>
+    <rPh sb="38" eb="40">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ls -d /opt/oracle/app/product/*/* でOracleのバージョン、サーバ/クライアントを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
+/proc/sys/crypto/fips_enabled</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_OperatingSystem オブジェクトから、メモリ情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_ComputerSystem オブジェクトから、システム情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_OperatingSystem オブジェクトから、OS情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriver オブジェクトから、ドライバー登録件数を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_LogicalDisk オブジェクトから、ストレージ容量を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_UserAccount オブジェクトから、ローカルアカウントのロック情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Service コマンドで、サービスのステータスを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_Product オブジェクトから、パッケージ情報検索</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下システム暗号化ポリシーレジストリの Enabled 値を検索
+HKLM:System\\CurrentControlSet\\Control\\Lsa\\FIPSAlgorithmPolicy</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration オブジェクトから、IP,GW,Indexを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetLbfoTeamNic コマンドで、NICチーミング(NetLBFO)名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetConnectionProfile コマンドで、ネットワークプロファイル検索。0:パブリック,1:プライベート,2:ドメイン認証</t>
+    <rPh sb="43" eb="45">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリからリモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】
+"HKLM:System\\CurrentControlSet\\Control\\Terminal Server"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetFirewallRuleコマンドで、Windows Firewall の受信規制リストを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-DnsClientServerAddress　コマンドで、DNSサーバ検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_ComputerSystem オブジェクトから仮想化プラットフォームを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリからストレージタイムアウト[秒]を検索
+"HKLM:SYSTEM\\CurrentControlSet\\Services\\disk"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリからNTPサーバ名検索
+"HKLM:System\\CurrentControlSet\\Services\\W32Time\\Parameters"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-ScheduledTask　コマンドで、Windows タスクスケジューラ情報を検索</t>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{win_dir}\system32\drivers\etc\hosts からホストリスト検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリから、InternetExplorerバージョンを検索
+"HKLM:SOFTWARE\\Microsoft\\Internet Explorer"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-WindowsFeature コマンドで、インストールされたWindows機能を検索</t>
+    <rPh sb="44" eb="46">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-EventLog コマンドで、Windowsシステムイベントログのエラーメッセージを検索</t>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-EventLog コマンドで、Windowsアプリイベントログのエラーメッセージを検索</t>
+    <rPh sb="45" eb="47">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -2536,7 +2707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2651,12 +2822,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2671,6 +2836,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4222,30 +4399,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38" t="s">
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
       <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -4779,7 +4956,7 @@
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="21" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -5960,30 +6137,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6672,14 +6849,14 @@
       <c r="D3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>632</v>
+      <c r="E3" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>575</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>137</v>
@@ -6752,9 +6929,9 @@
       <c r="D4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -6788,14 +6965,14 @@
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>632</v>
+      <c r="E5" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>575</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>161</v>
@@ -6832,9 +7009,9 @@
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="30" t="s">
         <v>165</v>
       </c>
@@ -6892,9 +7069,9 @@
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="30" t="s">
         <v>177</v>
       </c>
@@ -6948,14 +7125,14 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="43" t="s">
-        <v>636</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>637</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>638</v>
+      <c r="E8" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -6990,9 +7167,9 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -7026,14 +7203,14 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>635</v>
+      <c r="E10" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>578</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -7066,9 +7243,9 @@
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -7094,9 +7271,9 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -7122,9 +7299,9 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -7150,9 +7327,9 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7178,9 +7355,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7206,9 +7383,9 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -7340,9 +7517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7397,8 +7572,8 @@
         <v>211</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>212</v>
+      <c r="F5" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -7407,30 +7582,30 @@
         <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>214</v>
+      <c r="F6" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>217</v>
+      <c r="F7" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -7439,46 +7614,46 @@
         <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>219</v>
+      <c r="F8" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>222</v>
+      <c r="F9" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>225</v>
+      <c r="F10" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -7486,10 +7661,10 @@
         <v>208</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>211</v>
@@ -7497,8 +7672,8 @@
       <c r="E11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>228</v>
+      <c r="F11" s="9" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7506,10 +7681,10 @@
         <v>208</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>211</v>
@@ -7517,8 +7692,8 @@
       <c r="E12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>231</v>
+      <c r="F12" s="9" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -7526,17 +7701,17 @@
         <v>208</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>234</v>
+      <c r="F13" s="9" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -7544,17 +7719,17 @@
         <v>208</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>237</v>
+      <c r="F14" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -7562,17 +7737,17 @@
         <v>208</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>240</v>
+      <c r="F15" s="9" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -7580,10 +7755,10 @@
         <v>208</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>211</v>
@@ -7591,8 +7766,8 @@
       <c r="E16" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>243</v>
+      <c r="F16" s="9" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -7600,7 +7775,7 @@
         <v>208</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>134</v>
@@ -7609,8 +7784,8 @@
         <v>84</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>245</v>
+      <c r="F17" s="9" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -7618,17 +7793,17 @@
         <v>208</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>248</v>
+      <c r="F18" s="9" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -7636,33 +7811,33 @@
         <v>208</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>250</v>
+      <c r="F19" s="9" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>253</v>
+      <c r="F20" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -7677,7 +7852,7 @@
         <v>84</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7686,17 +7861,17 @@
         <v>208</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>256</v>
+      <c r="F22" s="9" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -7705,30 +7880,30 @@
         <v>165</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>257</v>
+      <c r="F23" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>259</v>
+      <c r="F24" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -7736,33 +7911,33 @@
         <v>208</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>262</v>
+      <c r="F25" s="9" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>265</v>
+      <c r="F26" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -7771,14 +7946,14 @@
         <v>180</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>267</v>
+      <c r="F27" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -7787,46 +7962,46 @@
         <v>74</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>269</v>
+      <c r="F28" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>272</v>
+      <c r="F29" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>275</v>
+      <c r="F30" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
@@ -7834,17 +8009,17 @@
         <v>208</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -7852,17 +8027,17 @@
         <v>208</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>281</v>
+      <c r="F32" s="9" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7871,30 +8046,30 @@
         <v>75</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>283</v>
+      <c r="F33" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>286</v>
+      <c r="F34" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7905,7 +8080,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
@@ -7913,8 +8088,8 @@
       <c r="E35" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>288</v>
+      <c r="F35" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7923,13 +8098,13 @@
         <v>170</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7939,30 +8114,30 @@
         <v>171</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>291</v>
+      <c r="F37" s="9" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>294</v>
+      <c r="F38" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -7970,17 +8145,17 @@
         <v>208</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>297</v>
+      <c r="F39" s="9" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7991,14 +8166,14 @@
         <v>172</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>299</v>
+      <c r="F40" s="9" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -8006,10 +8181,10 @@
         <v>208</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
@@ -8017,8 +8192,8 @@
       <c r="E41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>302</v>
+      <c r="F41" s="9" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -8026,17 +8201,17 @@
         <v>208</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -8044,17 +8219,17 @@
         <v>208</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>308</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -8065,7 +8240,7 @@
         <v>169</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
@@ -8073,56 +8248,54 @@
       <c r="E44" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>310</v>
+      <c r="F44" s="9" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>316</v>
+      <c r="F46" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>319</v>
+      <c r="F47" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -8130,17 +8303,17 @@
         <v>208</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>322</v>
+      <c r="F48" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -8148,10 +8321,10 @@
         <v>208</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
@@ -8159,19 +8332,19 @@
       <c r="E49" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>325</v>
+      <c r="F49" s="9" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
@@ -8179,89 +8352,89 @@
       <c r="E50" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>329</v>
+      <c r="F50" s="9" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>332</v>
+      <c r="F51" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="F52" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>341</v>
+      <c r="F54" s="9" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
@@ -8269,147 +8442,147 @@
       <c r="E55" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>344</v>
+      <c r="F55" s="9" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>347</v>
+      <c r="F56" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>350</v>
+      <c r="F57" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>353</v>
+      <c r="F58" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>356</v>
+      <c r="F59" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>359</v>
+      <c r="F60" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>362</v>
+      <c r="F61" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>365</v>
+      <c r="F62" s="9" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>368</v>
+      <c r="F63" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
@@ -8417,479 +8590,479 @@
       <c r="E64" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>371</v>
+      <c r="F64" s="9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
-        <v>374</v>
+      <c r="F65" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>377</v>
+      <c r="F66" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>380</v>
+      <c r="F67" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>383</v>
+      <c r="F68" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
-        <v>386</v>
+      <c r="F69" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>389</v>
+      <c r="F70" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
-        <v>407</v>
+      <c r="F76" s="9" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
-        <v>410</v>
+      <c r="F77" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>413</v>
+      <c r="F78" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>416</v>
+      <c r="F79" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>419</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
-        <v>428</v>
+      <c r="F83" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
-        <v>430</v>
+      <c r="F84" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>432</v>
+      <c r="F85" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
-        <v>434</v>
+      <c r="F86" s="9" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
-        <v>436</v>
+      <c r="F87" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F88" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
-        <v>442</v>
+      <c r="F89" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
-        <v>445</v>
+      <c r="F90" s="9" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
-        <v>448</v>
+      <c r="F91" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
@@ -8897,50 +9070,50 @@
       <c r="E92" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>452</v>
+      <c r="F92" s="9" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F93" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
-        <v>458</v>
+      <c r="F94" s="9" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -8960,9 +9133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
-    </sheetView>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8971,7 +9142,7 @@
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="65.75" customWidth="1"/>
+    <col min="6" max="6" width="52.125" customWidth="1"/>
     <col min="7" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8997,7 +9168,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>209</v>
@@ -9009,8 +9180,8 @@
         <v>211</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>460</v>
+      <c r="F5" s="45" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -9019,30 +9190,30 @@
         <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>214</v>
+      <c r="F6" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>217</v>
+      <c r="F7" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -9051,46 +9222,46 @@
         <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>219</v>
+      <c r="F8" s="45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>222</v>
+      <c r="F9" s="45" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>461</v>
+      <c r="F10" s="45" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -9098,10 +9269,10 @@
         <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>211</v>
@@ -9109,19 +9280,19 @@
       <c r="E11" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>211</v>
@@ -9129,8 +9300,8 @@
       <c r="E12" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>231</v>
+      <c r="F12" s="45" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -9138,17 +9309,17 @@
         <v>208</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>234</v>
+      <c r="F13" s="45" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -9156,35 +9327,35 @@
         <v>208</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="45" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>240</v>
+      <c r="F15" s="45" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -9192,10 +9363,10 @@
         <v>208</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>211</v>
@@ -9203,8 +9374,8 @@
       <c r="E16" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>243</v>
+      <c r="F16" s="45" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -9212,33 +9383,33 @@
         <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>462</v>
+      <c r="F17" s="46" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>265</v>
+      <c r="F18" s="46" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -9247,14 +9418,14 @@
         <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>267</v>
+      <c r="F19" s="46" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -9263,14 +9434,14 @@
         <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>464</v>
+      <c r="F20" s="46" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -9279,14 +9450,14 @@
         <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>269</v>
+      <c r="F21" s="46" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -9294,17 +9465,17 @@
         <v>208</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>467</v>
+      <c r="F22" s="46" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -9313,46 +9484,46 @@
         <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>469</v>
+      <c r="F23" s="46" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>472</v>
+      <c r="F24" s="46" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>475</v>
+      <c r="F25" s="46" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -9360,81 +9531,81 @@
         <v>208</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>478</v>
+      <c r="F26" s="46" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>481</v>
+      <c r="F27" s="46" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>484</v>
+      <c r="F28" s="46" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>487</v>
+      <c r="F29" s="46" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>490</v>
+      <c r="F30" s="46" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -9445,14 +9616,14 @@
         <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>492</v>
+      <c r="F31" s="46" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -9461,30 +9632,30 @@
         <v>177</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>494</v>
+      <c r="F32" s="46" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>497</v>
+      <c r="F33" s="46" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -9493,41 +9664,41 @@
         <v>178</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>499</v>
+      <c r="F34" s="46" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>502</v>
+      <c r="F35" s="46" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>91</v>
@@ -9535,8 +9706,8 @@
       <c r="E36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>505</v>
+      <c r="F36" s="46" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -9547,7 +9718,7 @@
         <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>91</v>
@@ -9555,51 +9726,51 @@
       <c r="E37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>507</v>
+      <c r="F37" s="46" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>510</v>
+      <c r="F38" s="46" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>91</v>
@@ -9607,37 +9778,37 @@
       <c r="E40" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="46" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>515</v>
+      <c r="F41" s="46" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>91</v>
@@ -9645,51 +9816,51 @@
       <c r="E42" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>516</v>
+      <c r="F42" s="46" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>519</v>
+      <c r="F43" s="46" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>522</v>
+      <c r="F44" s="46" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>91</v>
@@ -9697,26 +9868,26 @@
       <c r="E45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F45" s="46" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>525</v>
+      <c r="F46" s="46" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -9735,23 +9906,23 @@
       <c r="E47" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>526</v>
+      <c r="F47" s="46" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9761,30 +9932,30 @@
         <v>184</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>529</v>
+      <c r="F49" s="46" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>532</v>
+      <c r="F50" s="46" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -9795,7 +9966,7 @@
         <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>91</v>
@@ -9803,19 +9974,19 @@
       <c r="E51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>91</v>
@@ -9823,37 +9994,37 @@
       <c r="E52" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>538</v>
+        <v>490</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>540</v>
+      <c r="F53" s="46" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>91</v>
@@ -9861,91 +10032,91 @@
       <c r="E54" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>543</v>
+      <c r="F54" s="46" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>428</v>
+      <c r="F55" s="46" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="46" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F57" s="46" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
-        <v>435</v>
+      <c r="F58" s="46" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>91</v>
@@ -9953,19 +10124,19 @@
       <c r="E59" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>554</v>
+      <c r="F59" s="46" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>91</v>
@@ -9973,37 +10144,37 @@
       <c r="E60" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F60" s="46" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>559</v>
+        <v>505</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>559</v>
+      <c r="F61" s="46" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>560</v>
+        <v>506</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>91</v>
@@ -10011,19 +10182,19 @@
       <c r="E62" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F62" s="46" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>91</v>
@@ -10031,19 +10202,19 @@
       <c r="E63" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F63" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>91</v>
@@ -10051,8 +10222,8 @@
       <c r="E64" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>568</v>
+      <c r="F64" s="46" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -10186,16 +10357,16 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>165</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>166</v>
@@ -10204,43 +10375,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10258,13 +10429,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -10276,37 +10447,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10326,26 +10497,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10365,7 +10536,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -10376,7 +10547,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10396,7 +10567,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -10407,7 +10578,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10427,7 +10598,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10438,7 +10609,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10467,7 +10638,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10496,7 +10667,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10525,7 +10696,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10554,7 +10725,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10583,7 +10754,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10612,7 +10783,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -13149,16 +13320,16 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>165</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>166</v>
@@ -13167,43 +13338,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -13218,16 +13389,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -13239,32 +13410,32 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="V3" s="12"/>
     </row>
@@ -13285,22 +13456,22 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -13322,7 +13493,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -13351,7 +13522,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -13380,7 +13551,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -16059,7 +16230,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>177</v>
@@ -16074,22 +16245,22 @@
         <v>181</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>615</v>
+        <v>558</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>616</v>
+        <v>559</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -16103,13 +16274,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -16118,22 +16289,22 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
       <c r="K3" s="12">
         <v>50</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -16149,16 +16320,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -16174,7 +16345,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -16195,7 +16366,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -16216,7 +16387,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -24,17 +24,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1550180340" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1550180340" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1550180340" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1550180340"/>
+      <pm:revision xmlns:pm="smNativeData" day="1551572693" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1551572693" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1551572693" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1551572693"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="694">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -459,10 +459,16 @@
     <t>datastore1</t>
   </si>
   <si>
+    <t>cent7g</t>
+  </si>
+  <si>
+    <t>datastore2</t>
+  </si>
+  <si>
+    <t>192.168.0.70</t>
+  </si>
+  <si>
     <t>P@ssword</t>
-  </si>
-  <si>
-    <t>datastore2</t>
   </si>
   <si>
     <t>No</t>
@@ -965,6 +971,15 @@
     <t>サブネットアドレス</t>
   </si>
   <si>
+    <t>ipv6_disable</t>
+  </si>
+  <si>
+    <t>├─IPv6無効化</t>
+  </si>
+  <si>
+    <t>IPv6無効化設定</t>
+  </si>
+  <si>
     <t>hw_address</t>
   </si>
   <si>
@@ -1138,7 +1153,7 @@
     <t>├─ファイヤーウォール(RHEL7)</t>
   </si>
   <si>
-    <t>firewalld ファイヤーウォールの自動起動設定</t>
+    <t>firewalld ファイヤーウォールの自動起動設定。無効化した</t>
   </si>
   <si>
     <t>service.iptables</t>
@@ -1184,6 +1199,15 @@
   </si>
   <si>
     <t>Wacom タブレットのホットプラグ機能の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver@:1</t>
+  </si>
+  <si>
+    <t>├─VNCサービス@:1</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定(複製)</t>
   </si>
   <si>
     <t>service.vncserver</t>
@@ -1403,6 +1427,15 @@
     <t>/etc/sysconfig/clock からタイムゾーンを検索</t>
   </si>
   <si>
+    <t>grub</t>
+  </si>
+  <si>
+    <t>ブートローダー</t>
+  </si>
+  <si>
+    <t>/etc/default/grupからGRUB_CMDLINE_LINUXのvgaを検索</t>
+  </si>
+  <si>
     <t>NTPサーバ名</t>
   </si>
   <si>
@@ -1936,9 +1969,6 @@
     <t>3.10</t>
   </si>
   <si>
-    <t>ens160</t>
-  </si>
-  <si>
     <t>192.168.0.254</t>
   </si>
   <si>
@@ -1951,10 +1981,112 @@
     <t>enabled</t>
   </si>
   <si>
+    <t>tigervnc</t>
+  </si>
+  <si>
     <t>1.6G</t>
   </si>
   <si>
-    <t>firewalld</t>
+    <t>tigervnc-server</t>
+  </si>
+  <si>
+    <t>binutils</t>
+  </si>
+  <si>
+    <t>compat-libcap1</t>
+  </si>
+  <si>
+    <t>compat-libstdc++-33</t>
+  </si>
+  <si>
+    <t>glibc</t>
+  </si>
+  <si>
+    <t>glibc-devel</t>
+  </si>
+  <si>
+    <t>ksh</t>
+  </si>
+  <si>
+    <t>libaio</t>
+  </si>
+  <si>
+    <t>libaio-devel</t>
+  </si>
+  <si>
+    <t>libgcc</t>
+  </si>
+  <si>
+    <t>libstdc++</t>
+  </si>
+  <si>
+    <t>libstdc++-devel</t>
+  </si>
+  <si>
+    <t>libxcb</t>
+  </si>
+  <si>
+    <t>libX11</t>
+  </si>
+  <si>
+    <t>libXau</t>
+  </si>
+  <si>
+    <t>libXi</t>
+  </si>
+  <si>
+    <t>libXtst</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>net-tools</t>
+  </si>
+  <si>
+    <t>nfs-utils</t>
+  </si>
+  <si>
+    <t>smartmontools</t>
+  </si>
+  <si>
+    <t>compat-libstdc++-33.i686</t>
+  </si>
+  <si>
+    <t>glibc.i686</t>
+  </si>
+  <si>
+    <t>glibc-devel.i686</t>
+  </si>
+  <si>
+    <t>libaio.i686</t>
+  </si>
+  <si>
+    <t>libaio-devel.i686</t>
+  </si>
+  <si>
+    <t>libgcc.i686</t>
+  </si>
+  <si>
+    <t>libstdc++.i686</t>
+  </si>
+  <si>
+    <t>libstdc++-devel.i686</t>
+  </si>
+  <si>
+    <t>libxcb.i686</t>
+  </si>
+  <si>
+    <t>libX11.i686</t>
+  </si>
+  <si>
+    <t>libXau.i686</t>
+  </si>
+  <si>
+    <t>libXi.i686</t>
+  </si>
+  <si>
+    <t>libXtst.i686</t>
   </si>
   <si>
     <t>network:key</t>
@@ -2019,7 +2151,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -2034,7 +2166,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2050,7 +2182,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2066,7 +2198,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2083,7 +2215,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -2100,7 +2232,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -2116,7 +2248,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -2132,7 +2264,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2148,7 +2280,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180340" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551572693" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2157,7 +2289,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2170,7 +2302,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2181,7 +2313,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2192,7 +2324,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2212,7 +2344,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2223,7 +2355,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2234,7 +2366,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2245,7 +2377,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2256,7 +2388,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2267,7 +2399,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2278,7 +2410,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2289,7 +2421,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2300,7 +2432,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2311,7 +2443,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2322,7 +2454,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2333,7 +2465,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2344,7 +2476,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2355,7 +2487,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2366,7 +2498,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2377,7 +2509,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2388,7 +2520,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2399,7 +2531,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2410,24 +2542,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180340" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551572693" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2443,7 +2564,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340"/>
+          <pm:border xmlns:pm="smNativeData" id="1551572693"/>
         </ext>
       </extLst>
     </border>
@@ -2462,7 +2583,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2486,7 +2607,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2510,7 +2631,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2534,7 +2655,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2557,7 +2678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2581,7 +2702,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2602,7 +2723,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2624,7 +2745,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2645,7 +2766,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2667,7 +2788,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2689,7 +2810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2710,7 +2831,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2732,7 +2853,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2755,7 +2876,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2777,7 +2898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2800,7 +2921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2821,7 +2942,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340"/>
+          <pm:border xmlns:pm="smNativeData" id="1551572693"/>
         </ext>
       </extLst>
     </border>
@@ -2840,7 +2961,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2861,7 +2982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2885,7 +3006,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2909,7 +3030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2932,7 +3053,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2956,7 +3077,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2980,7 +3101,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340"/>
+          <pm:border xmlns:pm="smNativeData" id="1551572693"/>
         </ext>
       </extLst>
     </border>
@@ -2999,31 +3120,12 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340">
+          <pm:border xmlns:pm="smNativeData" id="1551572693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180340"/>
         </ext>
       </extLst>
     </border>
@@ -3178,10 +3280,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1550180340" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1551572693" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1550180340" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1551572693" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -6346,7 +6448,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6357,16 +6459,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6380,7 +6482,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6567,9 +6669,7 @@
       <c r="G4" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>88</v>
-      </c>
+      <c r="H4" s="31"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6620,50 +6720,62 @@
       <c r="G5" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -6679,31 +6791,57 @@
         <v>1</v>
       </c>
       <c r="S6" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="6" t="n">
@@ -7079,15 +7217,18 @@
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:S1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation sqref="B4:B23" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+  <dataValidations count="2">
+    <dataValidation sqref="B4:B6 B8:B23" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>利用手順!$C$116:$C$118</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>利用手順!$C$116:$C$118</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7098,16 +7239,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7144,90 +7285,90 @@
   <sheetData>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>66</v>
@@ -7255,45 +7396,45 @@
       <c r="V4" s="32"/>
       <c r="W4" s="32"/>
       <c r="X4" s="32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z4" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="5" spans="1:26" hidden="1">
       <c r="A5" s="32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
@@ -7310,17 +7451,17 @@
       <c r="X5" s="32"/>
       <c r="Y5" s="32"/>
       <c r="Z5" s="35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:26" hidden="1">
       <c r="A6" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -7329,48 +7470,48 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T6" s="32"/>
       <c r="U6" s="32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W6" s="32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X6" s="32"/>
       <c r="Y6" s="32"/>
@@ -7379,13 +7520,13 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="7" spans="1:26" hidden="1">
       <c r="A7" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -7394,42 +7535,42 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>74</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -7440,25 +7581,25 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="8" spans="1:26" hidden="1">
       <c r="A8" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -7468,14 +7609,14 @@
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
@@ -7483,17 +7624,17 @@
       <c r="X8" s="32"/>
       <c r="Y8" s="32"/>
       <c r="Z8" s="33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="9" spans="1:26" hidden="1">
       <c r="A9" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -7509,14 +7650,14 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
@@ -7524,29 +7665,29 @@
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="10" spans="1:26" hidden="1">
       <c r="A10" s="36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -7556,14 +7697,14 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
       <c r="T10" s="36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
@@ -7571,11 +7712,11 @@
       <c r="X10" s="36"/>
       <c r="Y10" s="36"/>
       <c r="Z10" s="37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7608,7 +7749,7 @@
       <c r="Z11" s="36"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180340" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551572693" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7756,7 +7897,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7765,16 +7906,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7803,33 +7944,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7864,7 +8005,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7873,16 +8014,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7893,10 +8034,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F94"/>
+  <dimension ref="A3:F97"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView view="normal" topLeftCell="A37" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -7923,37 +8064,37 @@
         <v>87</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7962,30 +8103,30 @@
         <v>82</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7994,14 +8135,14 @@
         <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8010,35 +8151,35 @@
         <v>135</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>136</v>
@@ -8047,293 +8188,293 @@
         <v>131</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8342,82 +8483,82 @@
         <v>74</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8426,59 +8567,59 @@
         <v>75</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>84</v>
@@ -8491,1010 +8632,1060 @@
     <row r="37" spans="1:6">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="F42" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="10"/>
+      <c r="A45" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="B45" s="10" t="s">
-        <v>328</v>
+        <v>184</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
+      <c r="E45" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="11" t="s">
-        <v>332</v>
-      </c>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10"/>
+      <c r="A51" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="B51" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="F51" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="E55" s="10"/>
       <c r="F55" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10"/>
+      <c r="A56" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="B56" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="F56" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="10"/>
+      <c r="A66" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="B66" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="F66" s="11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="10"/>
+      <c r="A83" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="B83" s="10" t="s">
-        <v>442</v>
+        <v>190</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>84</v>
+        <v>445</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="11" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="11" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>462</v>
+        <v>201</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="10"/>
+      <c r="A91" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="B91" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="10" t="s">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="E92" s="10"/>
       <c r="F92" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="10" t="s">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="10" t="s">
-        <v>468</v>
-      </c>
+      <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9505,16 +9696,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9547,37 +9738,37 @@
         <v>87</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9586,30 +9777,30 @@
         <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9618,14 +9809,14 @@
         <v>83</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9634,35 +9825,35 @@
         <v>135</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>136</v>
@@ -9671,173 +9862,173 @@
         <v>131</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="42" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="42" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9846,473 +10037,473 @@
         <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="42" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="42" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="42" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="42" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="42" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="42" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="42" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="42" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="42" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="42" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="42" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="42" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="42" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="42" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="42" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="42" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="42" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="42" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="42" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="42" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>91</v>
@@ -10325,308 +10516,308 @@
     <row r="49" spans="1:6">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="42" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="42" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="42" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="42" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="42" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="42" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="42" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="42" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10637,16 +10828,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10690,16 +10881,16 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -10770,58 +10961,58 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -10839,13 +11030,13 @@
         <v>2.60000000000000009</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>6.70000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -10857,37 +11048,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -10907,26 +11098,26 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -10946,7 +11137,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10957,7 +11148,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -10977,7 +11168,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10988,7 +11179,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -11008,7 +11199,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -11019,7 +11210,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -11048,7 +11239,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -11077,7 +11268,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -11106,7 +11297,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -11135,7 +11326,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -11164,7 +11355,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -11193,7 +11384,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -13603,7 +13794,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13614,16 +13805,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13637,7 +13828,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -13661,22 +13852,22 @@
     <col min="18" max="18" width="7.372727" customWidth="1"/>
     <col min="19" max="20" width="9.500000" customWidth="1"/>
     <col min="21" max="21" width="9.127273" customWidth="1"/>
-    <col min="22" max="22" width="26.627273" customWidth="1"/>
-    <col min="23" max="1025" width="8.745455" customWidth="1"/>
+    <col min="22" max="22" width="27.990909" customWidth="1"/>
+    <col min="23" max="1024" width="8.745455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -13747,58 +13938,58 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -13809,20 +14000,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>6.70000000000000018</v>
+        <v>7.20000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -13831,37 +14022,35 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>630</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>630</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="V3" s="14"/>
+        <v>644</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="7">
@@ -13880,25 +14069,23 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>633</v>
-      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="7">
@@ -13917,7 +14104,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13927,7 +14114,9 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="V5" s="14" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="7">
@@ -13946,7 +14135,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13956,7 +14145,9 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
+      <c r="V6" s="14" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="7">
@@ -13975,7 +14166,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -13985,7 +14176,9 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
+      <c r="V7" s="14" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="7">
@@ -14012,7 +14205,9 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="14" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="7">
@@ -14039,7 +14234,9 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
+      <c r="V9" s="14" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="7">
@@ -14066,7 +14263,9 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
+      <c r="V10" s="14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="7">
@@ -14093,7 +14292,9 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
+      <c r="V11" s="14" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="7">
@@ -14120,7 +14321,9 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="14" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="7">
@@ -14147,7 +14350,9 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
+      <c r="V13" s="14" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="7">
@@ -14174,7 +14379,9 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="7">
@@ -14201,7 +14408,9 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="14" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="7">
@@ -14228,7 +14437,9 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
+      <c r="V16" s="14" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="7">
@@ -14255,7 +14466,9 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="14" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="7">
@@ -14282,7 +14495,9 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+      <c r="V18" s="14" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="7">
@@ -14309,7 +14524,9 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
+      <c r="V19" s="14" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="7">
@@ -14336,7 +14553,9 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
+      <c r="V20" s="14" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="7">
@@ -14363,7 +14582,9 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="V21" s="14" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="7">
@@ -14390,7 +14611,9 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
+      <c r="V22" s="14" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="7">
@@ -14417,7 +14640,9 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="V23" s="7" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="7">
@@ -14444,7 +14669,9 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7">
@@ -14471,7 +14698,9 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="V25" s="7" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="7">
@@ -14498,7 +14727,9 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="7">
@@ -14525,7 +14756,9 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="V27" s="7" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="7">
@@ -14552,7 +14785,9 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="7">
@@ -14579,7 +14814,9 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="V29" s="7" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="7">
@@ -14606,7 +14843,9 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="7">
@@ -14633,7 +14872,9 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="V31" s="7" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="7">
@@ -14660,7 +14901,9 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="7">
@@ -14687,7 +14930,9 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="V33" s="7" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="7">
@@ -14714,7 +14959,9 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="7">
@@ -14741,7 +14988,9 @@
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+      <c r="V35" s="7" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="7">
@@ -14768,7 +15017,9 @@
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
+      <c r="V36" s="7" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="7">
@@ -14795,7 +15046,9 @@
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="V37" s="7" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="7">
@@ -14822,7 +15075,9 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+      <c r="V38" s="7" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="7">
@@ -16556,7 +16811,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16567,16 +16822,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16615,16 +16870,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>91</v>
@@ -16671,34 +16926,34 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16712,13 +16967,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>1</v>
@@ -16727,20 +16982,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>40</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
-        <v>647</v>
+        <v>691</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16756,16 +17011,16 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16781,7 +17036,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -16802,7 +17057,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -16823,7 +17078,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -18640,7 +18895,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180340" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551572693" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -18651,16 +18906,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180340" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180340" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551572693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551572693" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180340" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551572693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="762">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2121,14 +2121,6 @@
   </si>
   <si>
     <t>wuauserv</t>
-  </si>
-  <si>
-    <t>jenkins4</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Test2</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Y</t>
@@ -2400,6 +2392,89 @@
   </si>
   <si>
     <t>wmic qfeコマンドで、パッチリストを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fstypes</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─ファイルシステムタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>マウントポイントのファイルシステム</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMware Tools の時刻同期</t>
+    <rPh sb="14" eb="16">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vmwaretool_timesync</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWareツールの時刻同期設定</t>
+    <rPh sb="10" eb="12">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>core_collector</t>
+  </si>
+  <si>
+    <t>コアコレクター設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vmware_scsi_timeout</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWare SCSIタイムアウト</t>
+  </si>
+  <si>
+    <t>/etc/udev/rules.d/99-vmware-scsi-udev.rulesからVMWare SCSIタイムアウト検索</t>
+    <rPh sb="62" eb="64">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2944,7 +3019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3056,12 +3131,6 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3079,6 +3148,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4631,30 +4712,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37" t="s">
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
       <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -6343,7 +6424,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6367,30 +6448,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6666,15 +6747,17 @@
         <v>92</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>749</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="4" t="s">
         <v>144</v>
@@ -7078,7 +7161,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -7815,10 +7898,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F97"/>
+  <dimension ref="A3:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A67" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8635,34 +8718,30 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A50" s="45"/>
       <c r="B50" s="8" t="s">
-        <v>344</v>
+        <v>750</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>345</v>
+        <v>751</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>346</v>
+        <v>752</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
@@ -8671,59 +8750,61 @@
         <v>229</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B52" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -8731,395 +8812,395 @@
         <v>347</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E56" s="8"/>
       <c r="F56" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B57" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F57" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B67" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F67" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -9127,17 +9208,17 @@
         <v>347</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -9145,17 +9226,17 @@
         <v>347</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -9163,87 +9244,87 @@
         <v>347</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="45"/>
+      <c r="B83" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="E83" s="45"/>
+      <c r="F83" s="46" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B85" s="8" t="s">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>84</v>
+        <v>445</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -9251,35 +9332,33 @@
         <v>347</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -9287,17 +9366,17 @@
         <v>347</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -9305,17 +9384,17 @@
         <v>347</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -9323,17 +9402,17 @@
         <v>347</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9341,35 +9420,35 @@
         <v>347</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>470</v>
+        <v>201</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -9377,88 +9456,160 @@
         <v>347</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A94" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B94" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E95" s="8"/>
       <c r="F95" s="9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
-        <v>479</v>
-      </c>
+      <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>753</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="45"/>
+      <c r="F97" s="46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="E98" s="45"/>
+      <c r="F98" s="46" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A101" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9491,1413 +9642,1413 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="40" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="40" customWidth="1"/>
-    <col min="6" max="6" width="52.125" style="40" customWidth="1"/>
-    <col min="7" max="1025" width="8.75" style="40" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="38" customWidth="1"/>
+    <col min="6" max="6" width="52.125" style="38" customWidth="1"/>
+    <col min="7" max="1025" width="8.75" style="38" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="40" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="40" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="40" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="40" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="40" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="40" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="41" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="41" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="41" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="41" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="43" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="41" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="41" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="41" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="41" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="43" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="41" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="41" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="43" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="41" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="43" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="41" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="41" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="41" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="43" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="41" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="41" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="41" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="43" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="41" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="43" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="41" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="D36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="41"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39" t="s">
         <v>694</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C37" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="C37" s="41" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="C38" s="39" t="s">
+        <v>698</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="C38" s="41" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="C39" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="C39" s="41" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="41" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A44" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A45" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="41" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A50" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="41" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="41" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="41" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A57" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="C57" s="39" t="s">
+        <v>704</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="44" t="s">
+      <c r="E57" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>707</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="41" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="39"/>
+      <c r="F59" s="41" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="39"/>
+      <c r="F60" s="41" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="39"/>
+      <c r="F62" s="41" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="39"/>
+      <c r="F63" s="41" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A64" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="41" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A68" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="B68" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E68" s="39"/>
+      <c r="F68" s="41" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="41" t="s">
+      <c r="F69" s="41" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="39"/>
+      <c r="F70" s="41" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="39"/>
+      <c r="F71" s="41" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A72" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D41" s="41" t="s">
+      <c r="B72" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E72" s="39"/>
+      <c r="F72" s="41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="39"/>
+      <c r="F73" s="41" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="42"/>
+      <c r="B74" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="42"/>
+      <c r="B75" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>743</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="43" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="D42" s="41" t="s">
+      <c r="F76" s="41" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A77" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="43" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41" t="s">
-        <v>537</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="D43" s="41" t="s">
+      <c r="E77" s="39"/>
+      <c r="F77" s="41" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="43" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="41" t="s">
+      <c r="E78" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="D44" s="41" t="s">
+      <c r="F78" s="41" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E79" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F44" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
+      <c r="F79" s="41" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A80" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="39"/>
+      <c r="F80" s="41" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="D45" s="41" t="s">
+      <c r="F81" s="41" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A82" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="D82" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="43" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="D46" s="41" t="s">
+      <c r="E82" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A83" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E83" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="43" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="43" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
-        <v>546</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>547</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="43" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A50" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>550</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="43" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="43" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>556</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="43" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>558</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>560</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>561</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A57" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>705</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>706</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41" t="s">
-        <v>708</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="43" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41" t="s">
-        <v>711</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>712</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="43" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
-        <v>714</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>715</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="41"/>
-      <c r="F60" s="43" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41" t="s">
-        <v>719</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>720</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="43" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41" t="s">
-        <v>722</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>723</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="43" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>725</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>726</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="43" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41" t="s">
-        <v>728</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>729</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41" t="s">
-        <v>731</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>732</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>735</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A68" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="43" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>566</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>569</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="43" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="43" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>575</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="43" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="44" t="s">
-        <v>737</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>738</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>739</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="41"/>
-      <c r="F73" s="43" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="41" t="s">
-        <v>741</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>742</v>
-      </c>
-      <c r="D74" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-      <c r="B75" s="41" t="s">
-        <v>743</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>744</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>745</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>746</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A77" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>577</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="41"/>
-      <c r="F77" s="43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>580</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78" s="43" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>582</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>583</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F79" s="43" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A80" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>586</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="43" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="43" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="B82" s="41" t="s">
-        <v>591</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>592</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F82" s="43" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="B83" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>595</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="41" t="s">
         <v>596</v>
       </c>
     </row>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="782">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2474,6 +2474,113 @@
     <t>/etc/udev/rules.d/99-vmware-scsi-udev.rulesからVMWare SCSIタイムアウト検索</t>
     <rPh sb="62" eb="64">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMNetwork.type</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─アダプタタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークアダプタタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWare 設定カスタマイズ</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.limit</t>
+  </si>
+  <si>
+    <t>├─リソース制限</t>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU,メモリリソース制限設定</t>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.shares_level</t>
+  </si>
+  <si>
+    <t>├─シェアレベル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU,メモリ共有レベル設定</t>
+    <rPh sb="7" eb="9">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.cpu_affinity</t>
+  </si>
+  <si>
+    <t>└─CPUアフィニティ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPUアフィニティ設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_nic_limit</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークアダプタ制限</t>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
+    <rPh sb="31" eb="34">
+      <t>セイゲンチ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -3019,7 +3126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3140,26 +3247,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4712,30 +4816,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43" t="s">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
       <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -6448,30 +6552,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -7898,10 +8002,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F101"/>
+  <dimension ref="A3:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7944,351 +8048,351 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="43" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="43" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C20" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D20" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B22" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C22" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D22" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F22" s="43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -8296,267 +8400,265 @@
         <v>229</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -8564,139 +8666,139 @@
         <v>229</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F41" s="9" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B47" s="8" t="s">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B48" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F48" s="9" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -8704,33 +8806,35 @@
         <v>229</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B50" s="8" t="s">
-        <v>750</v>
+        <v>328</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>751</v>
+        <v>329</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>752</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -8738,10 +8842,10 @@
         <v>229</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
@@ -8750,108 +8854,98 @@
         <v>229</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>350</v>
-      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="42"/>
       <c r="B56" s="8" t="s">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>361</v>
+        <v>751</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9" t="s">
-        <v>362</v>
+        <v>752</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
@@ -8860,453 +8954,457 @@
         <v>229</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B58" s="8" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F58" s="9" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B60" s="8" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B61" s="8" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B62" s="8" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B63" s="8" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F63" s="9" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E67" s="8"/>
       <c r="F67" s="9" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B73" s="8" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F73" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>746</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="46" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -9314,17 +9412,17 @@
         <v>347</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>445</v>
+        <v>84</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -9332,33 +9430,35 @@
         <v>347</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="8"/>
+      <c r="A87" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B87" s="8" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -9366,53 +9466,51 @@
         <v>347</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9420,17 +9518,17 @@
         <v>347</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>84</v>
+        <v>445</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -9438,53 +9536,51 @@
         <v>347</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -9492,124 +9588,232 @@
         <v>347</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="9" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="8"/>
+      <c r="A96" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B96" s="8" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="B97" s="45" t="s">
-        <v>754</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>753</v>
+      <c r="A97" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="45"/>
-      <c r="F97" s="46" t="s">
-        <v>755</v>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="B98" s="45" t="s">
-        <v>759</v>
-      </c>
-      <c r="C98" s="45" t="s">
-        <v>760</v>
-      </c>
-      <c r="D98" s="45" t="s">
-        <v>746</v>
-      </c>
-      <c r="E98" s="45"/>
-      <c r="F98" s="46" t="s">
-        <v>761</v>
+      <c r="A98" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E99" s="8"/>
       <c r="F99" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="42"/>
+      <c r="F103" s="43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E104" s="42"/>
+      <c r="F104" s="43" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9634,11 +9838,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F83"/>
+  <dimension ref="A4:F89"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9672,713 +9874,703 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="43" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="43" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B14" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D14" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D15" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
+    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B16" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C20" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D20" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B22" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C22" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D22" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F22" s="43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B23" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>280</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>494</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="39"/>
-      <c r="F23" s="41" t="s">
-        <v>495</v>
+      <c r="F23" s="40" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="39" t="s">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="39"/>
-      <c r="F24" s="41" t="s">
-        <v>498</v>
+      <c r="F24" s="40" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="39" t="s">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>500</v>
+        <v>285</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="39"/>
-      <c r="F25" s="41" t="s">
-        <v>501</v>
+      <c r="F25" s="40" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A26" s="39"/>
       <c r="B26" s="39" t="s">
-        <v>502</v>
+        <v>194</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="F26" s="41" t="s">
-        <v>504</v>
+      <c r="F26" s="40" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="39"/>
       <c r="B27" s="39" t="s">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="39"/>
-      <c r="F27" s="41" t="s">
-        <v>507</v>
+      <c r="F27" s="40" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B28" s="39" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>509</v>
+        <v>299</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="39"/>
-      <c r="F28" s="41" t="s">
-        <v>510</v>
+      <c r="F28" s="40" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="39" t="s">
-        <v>511</v>
+        <v>196</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="39"/>
-      <c r="F29" s="41" t="s">
-        <v>513</v>
+      <c r="F29" s="40" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="39"/>
-      <c r="F30" s="41" t="s">
-        <v>516</v>
+      <c r="F30" s="40" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>180</v>
+        <v>499</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="39"/>
-      <c r="F31" s="41" t="s">
-        <v>518</v>
+      <c r="F31" s="40" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B32" s="39" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="39"/>
-      <c r="F32" s="41" t="s">
-        <v>520</v>
+      <c r="F32" s="40" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="39"/>
-      <c r="F33" s="41" t="s">
-        <v>523</v>
+      <c r="F33" s="40" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="39"/>
-      <c r="F34" s="41" t="s">
-        <v>525</v>
+      <c r="F34" s="40" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="39"/>
-      <c r="F35" s="41" t="s">
-        <v>528</v>
+      <c r="F35" s="40" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
-        <v>691</v>
-      </c>
+      <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
-        <v>692</v>
+        <v>514</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>693</v>
+        <v>515</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="39"/>
-      <c r="F36" s="41"/>
+      <c r="F36" s="40" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
+      <c r="A37" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B37" s="39" t="s">
-        <v>694</v>
+        <v>180</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>695</v>
+        <v>517</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="39"/>
-      <c r="F37" s="39" t="s">
-        <v>696</v>
+      <c r="F37" s="40" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39" t="s">
-        <v>697</v>
+        <v>192</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>698</v>
+        <v>519</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="39"/>
-      <c r="F38" s="39" t="s">
-        <v>699</v>
+      <c r="F38" s="40" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>700</v>
+        <v>521</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>701</v>
+        <v>522</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="39" t="s">
-        <v>702</v>
+      <c r="F39" s="40" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>531</v>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>533</v>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
+      <c r="A42" s="39" t="s">
+        <v>691</v>
+      </c>
       <c r="B42" s="39" t="s">
-        <v>534</v>
+        <v>692</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="39"/>
-      <c r="F42" s="41" t="s">
-        <v>536</v>
-      </c>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="39"/>
       <c r="B43" s="39" t="s">
-        <v>537</v>
+        <v>694</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>538</v>
+        <v>695</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="F43" s="41" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="F43" s="39" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="39"/>
       <c r="B44" s="39" t="s">
-        <v>348</v>
+        <v>697</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="39"/>
       <c r="B45" s="39" t="s">
-        <v>354</v>
+        <v>700</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>355</v>
+        <v>701</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="39"/>
-      <c r="F45" s="41" t="s">
-        <v>541</v>
+      <c r="F45" s="39" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>363</v>
+        <v>529</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>364</v>
+        <v>530</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>91</v>
@@ -10386,157 +10578,161 @@
       <c r="E46" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>542</v>
+      <c r="F46" s="40" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
+      <c r="A47" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B47" s="39" t="s">
-        <v>543</v>
+        <v>184</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="41" t="s">
-        <v>545</v>
+      <c r="E47" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="41" t="s">
-        <v>548</v>
+      <c r="F48" s="40" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>393</v>
+        <v>537</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>394</v>
+        <v>538</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="40" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A50" s="42" t="s">
-        <v>347</v>
-      </c>
       <c r="B50" s="39" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>550</v>
+        <v>349</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="41" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>159</v>
+        <v>355</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>552</v>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B52" s="39" t="s">
-        <v>553</v>
+        <v>363</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="41" t="s">
-        <v>28</v>
+      <c r="E52" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="39" t="s">
-        <v>199</v>
+        <v>543</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="39"/>
-      <c r="F53" s="41" t="s">
-        <v>555</v>
+      <c r="F53" s="40" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="39"/>
-      <c r="F54" s="41" t="s">
-        <v>557</v>
+      <c r="F54" s="40" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="39" t="s">
-        <v>229</v>
+      <c r="A55" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>558</v>
+        <v>394</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>91</v>
@@ -10544,39 +10740,37 @@
       <c r="E55" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F55" s="41" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="39" t="s">
-        <v>229</v>
+      <c r="F55" s="40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A56" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>560</v>
+        <v>357</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="E56" s="39"/>
+      <c r="F56" s="40" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>703</v>
+        <v>197</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>704</v>
+        <v>159</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>91</v>
@@ -10584,56 +10778,56 @@
       <c r="E57" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="41" t="s">
-        <v>705</v>
+      <c r="F57" s="40" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39" t="s">
-        <v>706</v>
+        <v>553</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>707</v>
+        <v>308</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="39"/>
-      <c r="F58" s="41" t="s">
-        <v>708</v>
+      <c r="F58" s="40" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>709</v>
+        <v>199</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>710</v>
+        <v>554</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="39"/>
-      <c r="F59" s="41" t="s">
-        <v>711</v>
+      <c r="F59" s="40" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>712</v>
+        <v>198</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>713</v>
+        <v>556</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="39"/>
-      <c r="F60" s="41" t="s">
-        <v>714</v>
+      <c r="F60" s="40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -10641,10 +10835,10 @@
         <v>229</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>715</v>
+        <v>558</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>91</v>
@@ -10652,375 +10846,367 @@
       <c r="E61" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F61" s="41" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
+      <c r="F61" s="40" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B62" s="39" t="s">
-        <v>717</v>
+        <v>560</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>718</v>
+        <v>561</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="41" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
+      <c r="E62" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B63" s="39" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="41" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="39" t="s">
+      <c r="E63" s="39" t="s">
         <v>229</v>
       </c>
+      <c r="F63" s="40" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="39"/>
-      <c r="F64" s="41" t="s">
-        <v>725</v>
+      <c r="F64" s="40" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="39"/>
-      <c r="F65" s="39" t="s">
-        <v>728</v>
+      <c r="F65" s="40" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="39"/>
-      <c r="F66" s="39" t="s">
-        <v>731</v>
+      <c r="F66" s="40" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="39"/>
+      <c r="A67" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B67" s="39" t="s">
-        <v>732</v>
+        <v>185</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A68" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="E67" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="39"/>
-      <c r="F68" s="41" t="s">
-        <v>565</v>
+      <c r="F68" s="40" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A69" s="39"/>
       <c r="B69" s="39" t="s">
-        <v>566</v>
+        <v>720</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>567</v>
+        <v>721</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="39"/>
+      <c r="F69" s="40" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A70" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F69" s="41" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="42" t="s">
-        <v>347</v>
-      </c>
       <c r="B70" s="39" t="s">
-        <v>569</v>
+        <v>723</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>570</v>
+        <v>724</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="39"/>
-      <c r="F70" s="41" t="s">
-        <v>571</v>
+      <c r="F70" s="40" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A71" s="39"/>
       <c r="B71" s="39" t="s">
-        <v>572</v>
+        <v>726</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>361</v>
+        <v>727</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="39"/>
-      <c r="F71" s="41" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="F71" s="39" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>574</v>
+        <v>729</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="39"/>
-      <c r="F72" s="41" t="s">
-        <v>576</v>
+      <c r="F72" s="39" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="42" t="s">
-        <v>735</v>
-      </c>
+      <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E73" s="39"/>
-      <c r="F73" s="41" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
+      <c r="F73" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A74" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B74" s="39" t="s">
-        <v>739</v>
+        <v>563</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>740</v>
+        <v>564</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="39"/>
-      <c r="F74" s="39" t="s">
-        <v>740</v>
+      <c r="F74" s="40" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B75" s="39" t="s">
-        <v>741</v>
+        <v>566</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>742</v>
+        <v>567</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39" t="s">
-        <v>742</v>
+      <c r="E75" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>743</v>
+        <v>569</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>744</v>
+        <v>570</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A77" s="42" t="s">
+      <c r="E76" s="39"/>
+      <c r="F76" s="40" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>577</v>
+        <v>361</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="39"/>
-      <c r="F77" s="41" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="42" t="s">
-        <v>347</v>
+      <c r="F77" s="40" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A78" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>581</v>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="42" t="s">
-        <v>347</v>
+      <c r="A79" s="41" t="s">
+        <v>735</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>582</v>
+        <v>736</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>583</v>
+        <v>737</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A80" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="41"/>
       <c r="B80" s="39" t="s">
-        <v>585</v>
+        <v>739</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>586</v>
+        <v>740</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="39"/>
-      <c r="F80" s="41" t="s">
-        <v>587</v>
+      <c r="F80" s="39" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A81" s="41"/>
       <c r="B81" s="39" t="s">
-        <v>588</v>
+        <v>741</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>589</v>
+        <v>742</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="42" t="s">
-        <v>479</v>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>591</v>
+        <v>743</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>592</v>
+        <v>744</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>91</v>
@@ -11028,27 +11214,143 @@
       <c r="E82" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="42" t="s">
-        <v>479</v>
+      <c r="F82" s="40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A83" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>594</v>
+        <v>189</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="39"/>
+      <c r="F83" s="40" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F84" s="40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A86" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A88" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A89" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" s="40" t="s">
         <v>596</v>
       </c>
     </row>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="807">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2478,110 +2478,198 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>VMNetwork.type</t>
+    <t>vm_conf.limit</t>
+  </si>
+  <si>
+    <t>vm_conf.shares_level</t>
+  </si>
+  <si>
+    <t>vm_conf.cpu_affinity</t>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>└─アダプタタイプ</t>
+    <t>vm_hot_add</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ネットワークアダプタタイプ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vm_conf</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>VMWare 設定カスタマイズ</t>
-    <rPh sb="7" eb="9">
+    <t>VMWare CPU/メモリ ホットアド設定</t>
+    <rPh sb="20" eb="22">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
-    <rPh sb="45" eb="47">
+    <t>Get-VM コマンドで VMWare CPU/メモリ ホットアド設定を検索</t>
+    <rPh sb="33" eb="35">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vm_conf.limit</t>
-  </si>
-  <si>
-    <t>├─リソース制限</t>
-    <rPh sb="6" eb="8">
-      <t>セイゲン</t>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>CPU,メモリリソース制限設定</t>
-    <rPh sb="11" eb="13">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
+    <t>vm.CpuHotAddEnabled</t>
+  </si>
+  <si>
+    <t>├─CPUホットアドの有効化</t>
+    <rPh sb="11" eb="14">
+      <t>ユウコウカ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>vm_conf.shares_level</t>
-  </si>
-  <si>
-    <t>├─シェアレベル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>CPU,メモリ共有レベル設定</t>
-    <rPh sb="7" eb="9">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
+    <t>CPUホットアドの有効化</t>
+    <rPh sb="9" eb="12">
+      <t>ユウコウカ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>vm_conf.cpu_affinity</t>
-  </si>
-  <si>
-    <t>└─CPUアフィニティ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>CPUアフィニティ設定</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
+    <t>vm.MemoryReservationLockedToMax</t>
+  </si>
+  <si>
+    <t>├─すべてのゲストメモリを予約</t>
+    <rPh sb="13" eb="15">
+      <t>ヨヤク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>すべてのゲストメモリを予約（全てロック）</t>
+    <rPh sb="11" eb="13">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm.MemoryHotAddEnabled</t>
+  </si>
+  <si>
+    <t>└─メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMNetwork.type</t>
+  </si>
+  <si>
+    <t>└─アダプタタイプ</t>
+  </si>
+  <si>
+    <t>ネットワークアダプタタイプ</t>
+  </si>
+  <si>
+    <t>vm_conf</t>
+  </si>
+  <si>
+    <t>VMWare 設定カスタマイズ</t>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
+  </si>
+  <si>
+    <t>├─リソース制限</t>
+  </si>
+  <si>
+    <t>CPU,メモリリソース制限設定</t>
+  </si>
+  <si>
+    <t>├─シェアレベル</t>
+  </si>
+  <si>
+    <t>CPU,メモリ共有レベル設定</t>
+  </si>
+  <si>
+    <t>└─CPUアフィニティ</t>
+  </si>
+  <si>
+    <t>CPUアフィニティ設定</t>
+  </si>
+  <si>
+    <t>vm_nic_limit</t>
+  </si>
+  <si>
+    <t>ネットワークアダプタ制限</t>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_floppy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>フロッピーディスク構成</t>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Vm $vm | Get-FloppyDriveコマンドで、フロッピィディスク構成を検索</t>
+    <rPh sb="43" eb="45">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>vm_nic_limit</t>
+    <t>vm_video_ram</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ネットワークアダプタ制限</t>
-    <rPh sb="10" eb="12">
-      <t>セイゲン</t>
+    <t>vm_video_ram</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ビデオRAM構成</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>Get-VM コマンドで、ビデオ RAM メモリ割り当てを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_floppy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>vCenter</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
-    <rPh sb="31" eb="34">
-      <t>セイゲンチ</t>
-    </rPh>
+    <t>Get-VM コマンドで、ビデオ RAM メモリ割り当てを検索</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2662,7 +2750,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2801,8 +2889,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3111,6 +3205,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3126,7 +3235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3264,6 +3373,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3608,7 +3723,7 @@
     <col min="18" max="18" width="10.75" customWidth="1"/>
     <col min="19" max="19" width="9.25" customWidth="1"/>
     <col min="20" max="20" width="11.25" customWidth="1"/>
-    <col min="21" max="1030" width="8.75" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -6527,9 +6642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6547,7 +6660,6 @@
     <col min="12" max="15" width="11.375" customWidth="1"/>
     <col min="16" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="1029" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -7272,18 +7384,12 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$116:$C$118</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B6 B8:B23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>利用手順!$C$116:$C$118</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7301,9 +7407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7320,7 +7424,6 @@
     <col min="24" max="24" width="12.25" customWidth="1"/>
     <col min="25" max="25" width="24.75" customWidth="1"/>
     <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="1037" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -7912,9 +8015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7922,7 +8023,6 @@
     <col min="2" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="65.75" customWidth="1"/>
-    <col min="6" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -8002,11 +8102,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F107"/>
+  <dimension ref="A3:F113"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8015,8 +8113,6 @@
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="68.375" customWidth="1"/>
-    <col min="7" max="1023" width="8.75" customWidth="1"/>
-    <col min="1024" max="1025" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -8048,451 +8144,453 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B15" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C15" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D15" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B16" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C16" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D16" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E16" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F16" s="47" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>782</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C21" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="C22" s="46" t="s">
+        <v>787</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
+      <c r="C23" s="46" t="s">
+        <v>789</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="B24" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="B25" s="46" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="47" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>765</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>766</v>
-      </c>
-      <c r="D16" s="42" t="s">
+      <c r="B26" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
-        <v>768</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>771</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42" t="s">
-        <v>774</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="E26" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>777</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>778</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>779</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>780</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
+      <c r="F26" s="47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="42" t="s">
+      <c r="B27" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B30" s="8" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -8500,267 +8598,265 @@
         <v>229</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B34" s="8" t="s">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B43" s="8" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B44" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -8768,139 +8864,139 @@
         <v>229</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F47" s="9" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B53" s="8" t="s">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B54" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F54" s="9" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -8908,33 +9004,35 @@
         <v>229</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B56" s="8" t="s">
-        <v>750</v>
+        <v>328</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>751</v>
+        <v>329</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9" t="s">
-        <v>752</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -8942,10 +9040,10 @@
         <v>229</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
@@ -8954,108 +9052,98 @@
         <v>229</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>350</v>
-      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="42"/>
       <c r="B62" s="8" t="s">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>361</v>
+        <v>751</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>362</v>
+        <v>752</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
@@ -9064,453 +9152,457 @@
         <v>229</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B64" s="8" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F64" s="9" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B66" s="8" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B67" s="8" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B68" s="8" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B69" s="8" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F69" s="9" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
+      <c r="A79" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B79" s="8" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F79" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42" t="s">
-        <v>756</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="D89" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9518,17 +9610,17 @@
         <v>347</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>445</v>
+        <v>84</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -9536,33 +9628,35 @@
         <v>347</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="8"/>
+      <c r="A93" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B93" s="8" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -9570,53 +9664,51 @@
         <v>347</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="42"/>
+      <c r="B95" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -9624,17 +9716,17 @@
         <v>347</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>84</v>
+        <v>445</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="9" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -9642,53 +9734,51 @@
         <v>347</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="9" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A99" s="8"/>
       <c r="B99" s="8" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="9" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -9696,124 +9786,232 @@
         <v>347</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="9" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="8"/>
+      <c r="A102" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B102" s="8" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="9" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="B103" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>753</v>
+      <c r="A103" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E103" s="42"/>
-      <c r="F103" s="43" t="s">
-        <v>755</v>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>759</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>760</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="E104" s="42"/>
-      <c r="F104" s="43" t="s">
-        <v>761</v>
+      <c r="A104" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E105" s="8"/>
       <c r="F105" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="42"/>
+      <c r="F109" s="43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E110" s="42"/>
+      <c r="F110" s="43" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A113" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9838,7 +10036,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F89"/>
+  <dimension ref="A4:F95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -9850,8 +10048,7 @@
     <col min="4" max="4" width="8.75" style="38" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="38" customWidth="1"/>
     <col min="6" max="6" width="52.125" style="38" customWidth="1"/>
-    <col min="7" max="1025" width="8.75" style="38" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="38"/>
+    <col min="7" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -9875,801 +10072,793 @@
       </c>
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B15" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C15" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D15" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B16" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C16" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D16" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E16" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F16" s="47" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42" t="s">
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>782</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C21" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="C22" s="46" t="s">
+        <v>787</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
+      <c r="C23" s="46" t="s">
+        <v>789</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A24" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="B24" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="B25" s="46" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="47" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B26" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A27" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="46" t="s">
         <v>765</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>766</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
-        <v>768</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>771</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42" t="s">
-        <v>774</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="B28" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>777</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>778</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>779</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>780</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="B29" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C29" s="39" t="s">
         <v>280</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>494</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="40" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="40" t="s">
-        <v>498</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>500</v>
+        <v>285</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40" t="s">
-        <v>501</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A32" s="39"/>
       <c r="B32" s="39" t="s">
-        <v>502</v>
+        <v>194</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="40" t="s">
-        <v>504</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="40" t="s">
-        <v>507</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
+      <c r="A34" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B34" s="39" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>509</v>
+        <v>299</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="40" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39" t="s">
-        <v>511</v>
+        <v>196</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="40" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="40" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A37" s="39"/>
       <c r="B37" s="39" t="s">
-        <v>180</v>
+        <v>499</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="40" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
+      <c r="A38" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B38" s="39" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="40" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="40" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="40" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
-        <v>691</v>
-      </c>
+      <c r="A42" s="39"/>
       <c r="B42" s="39" t="s">
-        <v>692</v>
+        <v>514</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>693</v>
+        <v>515</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
+      <c r="F42" s="40" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="39"/>
+      <c r="A43" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B43" s="39" t="s">
-        <v>694</v>
+        <v>180</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>695</v>
+        <v>517</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="F43" s="39" t="s">
-        <v>696</v>
+      <c r="F43" s="40" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="B44" s="39" t="s">
-        <v>697</v>
+        <v>192</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>698</v>
+        <v>519</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="39"/>
-      <c r="F44" s="39" t="s">
-        <v>699</v>
+      <c r="F44" s="40" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="39" t="s">
-        <v>700</v>
+        <v>521</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>701</v>
+        <v>522</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="39"/>
-      <c r="F45" s="39" t="s">
-        <v>702</v>
+      <c r="F45" s="40" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
-        <v>347</v>
-      </c>
+      <c r="A46" s="39"/>
       <c r="B46" s="39" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E46" s="39"/>
       <c r="F46" s="40" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A47" s="39"/>
       <c r="B47" s="39" t="s">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E47" s="39"/>
       <c r="F47" s="40" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="39"/>
+      <c r="A48" s="39" t="s">
+        <v>691</v>
+      </c>
       <c r="B48" s="39" t="s">
-        <v>534</v>
+        <v>692</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="40" t="s">
-        <v>536</v>
-      </c>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>537</v>
+        <v>694</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>538</v>
+        <v>695</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="39"/>
-      <c r="F49" s="40" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="F49" s="39" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="39"/>
       <c r="B50" s="39" t="s">
-        <v>348</v>
+        <v>697</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A51" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="39"/>
       <c r="B51" s="39" t="s">
-        <v>354</v>
+        <v>700</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>355</v>
+        <v>701</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="39"/>
-      <c r="F51" s="40" t="s">
-        <v>541</v>
+      <c r="F51" s="39" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -10677,10 +10866,10 @@
         <v>347</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>363</v>
+        <v>529</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>364</v>
+        <v>530</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>91</v>
@@ -10689,156 +10878,160 @@
         <v>229</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="39"/>
+      <c r="A53" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B53" s="39" t="s">
-        <v>543</v>
+        <v>184</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="F53" s="40" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="40" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="41" t="s">
-        <v>347</v>
-      </c>
+      <c r="A55" s="39"/>
       <c r="B55" s="39" t="s">
-        <v>393</v>
+        <v>537</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>394</v>
+        <v>538</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="40" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F55" s="40" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A56" s="41" t="s">
-        <v>347</v>
-      </c>
       <c r="B56" s="39" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>550</v>
+        <v>349</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="39"/>
+      <c r="E56" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="F56" s="40" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>159</v>
+        <v>355</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E57" s="39"/>
       <c r="F57" s="40" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B58" s="39" t="s">
-        <v>553</v>
+        <v>363</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="39"/>
+      <c r="E58" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="F58" s="40" t="s">
-        <v>28</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>199</v>
+        <v>543</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="40" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="40" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="39" t="s">
-        <v>229</v>
+      <c r="A61" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>558</v>
+        <v>394</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>91</v>
@@ -10847,38 +11040,36 @@
         <v>229</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A62" s="39" t="s">
-        <v>229</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A62" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>560</v>
+        <v>357</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E62" s="39"/>
       <c r="F62" s="40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>703</v>
+        <v>197</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>704</v>
+        <v>159</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>91</v>
@@ -10887,55 +11078,55 @@
         <v>229</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>705</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
-        <v>706</v>
+        <v>553</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>707</v>
+        <v>308</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="40" t="s">
-        <v>708</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39" t="s">
-        <v>709</v>
+        <v>199</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>710</v>
+        <v>554</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="39"/>
       <c r="F65" s="40" t="s">
-        <v>711</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39" t="s">
-        <v>712</v>
+        <v>198</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>713</v>
+        <v>556</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="40" t="s">
-        <v>714</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -10943,10 +11134,10 @@
         <v>229</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>715</v>
+        <v>558</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>91</v>
@@ -10955,247 +11146,251 @@
         <v>229</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="39"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A68" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B68" s="39" t="s">
-        <v>717</v>
+        <v>560</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>718</v>
+        <v>561</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="39"/>
+      <c r="E68" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="F68" s="40" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="39"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A69" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B69" s="39" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="39"/>
+      <c r="E69" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="F69" s="40" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A70" s="39" t="s">
-        <v>229</v>
-      </c>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="39"/>
       <c r="B70" s="39" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="40" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="39"/>
       <c r="B71" s="39" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="39"/>
-      <c r="F71" s="39" t="s">
-        <v>728</v>
+      <c r="F71" s="40" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="39"/>
-      <c r="F72" s="39" t="s">
-        <v>731</v>
+      <c r="F72" s="40" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
+      <c r="A73" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B73" s="39" t="s">
-        <v>732</v>
+        <v>185</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
-        <v>347</v>
-      </c>
+      <c r="E73" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="39"/>
       <c r="B74" s="39" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="40" t="s">
-        <v>565</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="41" t="s">
-        <v>347</v>
-      </c>
+      <c r="A75" s="39"/>
       <c r="B75" s="39" t="s">
-        <v>566</v>
+        <v>720</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>567</v>
+        <v>721</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="39"/>
+      <c r="F75" s="40" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A76" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F75" s="40" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="41" t="s">
-        <v>347</v>
-      </c>
       <c r="B76" s="39" t="s">
-        <v>569</v>
+        <v>723</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>570</v>
+        <v>724</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="40" t="s">
-        <v>571</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="41" t="s">
-        <v>347</v>
-      </c>
+      <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>572</v>
+        <v>726</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>361</v>
+        <v>727</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="39"/>
-      <c r="F77" s="40" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A78" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="F77" s="39" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="39"/>
       <c r="B78" s="39" t="s">
-        <v>574</v>
+        <v>729</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E78" s="39"/>
-      <c r="F78" s="40" t="s">
-        <v>576</v>
+      <c r="F78" s="39" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="41" t="s">
-        <v>735</v>
-      </c>
+      <c r="A79" s="39"/>
       <c r="B79" s="39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E79" s="39"/>
-      <c r="F79" s="40" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="41"/>
+      <c r="F79" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A80" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B80" s="39" t="s">
-        <v>739</v>
+        <v>563</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>740</v>
+        <v>564</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="39"/>
-      <c r="F80" s="39" t="s">
-        <v>740</v>
+      <c r="F80" s="40" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="41"/>
+      <c r="A81" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B81" s="39" t="s">
-        <v>741</v>
+        <v>566</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>742</v>
+        <v>567</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39" t="s">
-        <v>742</v>
+      <c r="E81" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -11203,126 +11398,114 @@
         <v>347</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>743</v>
+        <v>569</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>744</v>
+        <v>570</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E82" s="39"/>
       <c r="F82" s="40" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>577</v>
+        <v>361</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="40" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="41" t="s">
-        <v>347</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A84" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E84" s="39"/>
       <c r="F84" s="40" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="41" t="s">
-        <v>347</v>
+        <v>735</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>582</v>
+        <v>736</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>583</v>
+        <v>737</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E85" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E85" s="39"/>
       <c r="F85" s="40" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A86" s="41" t="s">
-        <v>347</v>
-      </c>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="41"/>
       <c r="B86" s="39" t="s">
-        <v>585</v>
+        <v>739</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>586</v>
+        <v>740</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="39"/>
-      <c r="F86" s="40" t="s">
-        <v>587</v>
+      <c r="F86" s="39" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="41" t="s">
-        <v>347</v>
-      </c>
+      <c r="A87" s="41"/>
       <c r="B87" s="39" t="s">
-        <v>588</v>
+        <v>741</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>589</v>
+        <v>742</v>
       </c>
       <c r="D87" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F87" s="40" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="E87" s="39"/>
+      <c r="F87" s="39" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="41" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>591</v>
+        <v>743</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>592</v>
+        <v>744</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>91</v>
@@ -11331,26 +11514,142 @@
         <v>229</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="41" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>594</v>
+        <v>189</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E89" s="39"/>
+      <c r="F89" s="40" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F89" s="40" t="s">
+      <c r="F90" s="40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A92" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A94" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A95" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" s="40" t="s">
         <v>596</v>
       </c>
     </row>
@@ -11369,9 +11668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11395,7 +11692,6 @@
     <col min="19" max="20" width="9.5" customWidth="1"/>
     <col min="21" max="21" width="9.125" customWidth="1"/>
     <col min="22" max="22" width="26.625" customWidth="1"/>
-    <col min="23" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
@@ -14312,7 +14608,7 @@
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -14332,9 +14628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14358,7 +14652,6 @@
     <col min="19" max="20" width="9.5" customWidth="1"/>
     <col min="21" max="21" width="9.125" customWidth="1"/>
     <col min="22" max="22" width="28" customWidth="1"/>
-    <col min="23" max="1024" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
@@ -17335,9 +17628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17355,8 +17646,6 @@
     <col min="12" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="1022" width="8.75" customWidth="1"/>
-    <col min="1023" max="1025" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="709">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -313,19 +313,10 @@
     <t>192.168.0.20</t>
   </si>
   <si>
-    <t>RH7</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
     <t>win2012</t>
-  </si>
-  <si>
-    <t>192.168.0.24</t>
-  </si>
-  <si>
-    <t>w2012</t>
   </si>
   <si>
     <t>4. 設定ファイル(config.groovy)編集</t>
@@ -2149,6 +2140,68 @@
   </si>
   <si>
     <t>Windows_sample</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>OracleLinuxカーネルモード</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>oracle_linux_kernel</t>
+  </si>
+  <si>
+    <t>Oracle Linux起動カーネル選択(UEK/RH互換)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>RH6_sample</t>
+  </si>
+  <si>
+    <t>RH7_sample</t>
+  </si>
+  <si>
+    <t>Windows_sample</t>
+  </si>
+  <si>
+    <t>NICチーミング設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nic_teaming_config</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Get-NetLbfoTeam コマンドで、NICチーミング(NetLBFO)設定を検索</t>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザーアカウント制御</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>user_account_control</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>以下レジストリからユーザアカウント制御を検索
+"HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System"</t>
+    <rPh sb="17" eb="19">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>jenkins3</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2659,7 +2712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2800,6 +2853,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4357,30 +4416,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47" t="s">
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47" t="s">
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
       <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -4521,14 +4580,12 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>84</v>
+        <v>698</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>88</v>
-      </c>
+      <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
@@ -4560,23 +4617,37 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>90</v>
+        <v>699</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="27"/>
+      <c r="I53" s="27" t="s">
+        <v>686</v>
+      </c>
       <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="K53" s="27">
+        <v>1</v>
+      </c>
+      <c r="L53" s="27">
+        <v>4</v>
+      </c>
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
+      <c r="Q53" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="S53" s="27">
+        <v>1</v>
+      </c>
+      <c r="T53" s="27">
+        <v>4</v>
+      </c>
       <c r="U53" s="25"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
@@ -4585,35 +4656,47 @@
         <v>3</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>92</v>
+        <v>686</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>93</v>
+        <v>689</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>91</v>
+        <v>699</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>94</v>
+        <v>686</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+      <c r="K54" s="27">
+        <v>1</v>
+      </c>
+      <c r="L54" s="27">
+        <v>3</v>
+      </c>
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
+      <c r="Q54" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="S54" s="27">
+        <v>1</v>
+      </c>
+      <c r="T54" s="27">
+        <v>3</v>
+      </c>
       <c r="U54" s="25"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
@@ -4621,24 +4704,50 @@
       <c r="B55" s="27">
         <v>4</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
+      <c r="J55" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="K55" s="27">
+        <v>1</v>
+      </c>
+      <c r="L55" s="27">
+        <v>4</v>
+      </c>
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
+      <c r="Q55" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="S55" s="27">
+        <v>1</v>
+      </c>
+      <c r="T55" s="27">
+        <v>4</v>
+      </c>
       <c r="U55" s="25"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
@@ -4816,7 +4925,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4865,7 +4974,7 @@
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
       <c r="B65" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4914,7 +5023,7 @@
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -4961,7 +5070,7 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
       <c r="B69" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5010,7 +5119,7 @@
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -5058,7 +5167,7 @@
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -5083,7 +5192,7 @@
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -5108,7 +5217,7 @@
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -5156,7 +5265,7 @@
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -5204,7 +5313,7 @@
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -5229,7 +5338,7 @@
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
@@ -5254,7 +5363,7 @@
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -5302,7 +5411,7 @@
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
@@ -5350,7 +5459,7 @@
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -5375,7 +5484,7 @@
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -5421,7 +5530,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -5470,7 +5579,7 @@
     <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="25"/>
       <c r="B90" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
@@ -5519,7 +5628,7 @@
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
@@ -5565,7 +5674,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -5614,7 +5723,7 @@
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="25"/>
       <c r="B96" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
@@ -5663,7 +5772,7 @@
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
@@ -5710,7 +5819,7 @@
     <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="25"/>
       <c r="B100" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
@@ -5735,7 +5844,7 @@
     <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="25"/>
       <c r="B101" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
@@ -5784,7 +5893,7 @@
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
@@ -5831,7 +5940,7 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="25"/>
       <c r="B105" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -5880,7 +5989,7 @@
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
@@ -5905,7 +6014,7 @@
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
@@ -5953,7 +6062,7 @@
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -5978,7 +6087,7 @@
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
@@ -6024,20 +6133,20 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C117" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C118" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6099,16 +6208,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6176,61 +6285,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6248,13 +6357,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6266,37 +6375,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="S3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6316,26 +6425,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6355,7 +6464,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6363,14 +6472,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6390,7 +6499,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6398,14 +6507,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6425,7 +6534,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6436,7 +6545,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6465,7 +6574,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9052,16 +9161,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9129,61 +9238,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9198,16 +9307,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9220,30 +9329,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9263,26 +9372,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9302,7 +9411,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9313,7 +9422,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9333,7 +9442,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9344,7 +9453,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9364,7 +9473,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9375,7 +9484,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9404,7 +9513,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9433,7 +9542,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9462,7 +9571,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9491,7 +9600,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9520,7 +9629,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9549,7 +9658,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9578,7 +9687,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9607,7 +9716,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9636,7 +9745,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9665,7 +9774,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9694,7 +9803,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9723,7 +9832,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9752,7 +9861,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9781,7 +9890,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9810,7 +9919,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9839,7 +9948,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9868,7 +9977,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -9897,7 +10006,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -9926,7 +10035,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -9955,7 +10064,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -9984,7 +10093,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -10013,7 +10122,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10042,7 +10151,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10071,7 +10180,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10100,7 +10209,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10129,7 +10238,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10158,7 +10267,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10187,7 +10296,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10216,7 +10325,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10245,7 +10354,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12042,46 +12151,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -12095,37 +12204,37 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12139,13 +12248,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12154,20 +12263,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12183,16 +12292,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12208,7 +12317,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12229,7 +12338,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12250,7 +12359,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -14100,30 +14209,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -14161,19 +14270,19 @@
         <v>58</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>56</v>
@@ -14217,22 +14326,22 @@
         <v>75</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>82</v>
@@ -14258,7 +14367,7 @@
         <v>87</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>85</v>
@@ -14293,13 +14402,13 @@
         <v>87</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5">
@@ -14313,10 +14422,10 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="R5" s="5">
         <v>1</v>
@@ -14333,19 +14442,19 @@
         <v>84</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>689</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>692</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -14360,10 +14469,10 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
@@ -14377,26 +14486,26 @@
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>92</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -14409,10 +14518,10 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="R7" s="5">
         <v>1</v>
@@ -14848,90 +14957,90 @@
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>66</v>
@@ -14959,40 +15068,40 @@
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
@@ -15009,12 +15118,12 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -15023,48 +15132,48 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>180</v>
       </c>
       <c r="T6" s="30"/>
       <c r="U6" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="W6" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="30"/>
@@ -15074,7 +15183,7 @@
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -15083,66 +15192,66 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="S7" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>192</v>
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -15152,14 +15261,14 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -15167,12 +15276,12 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -15188,14 +15297,14 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
       <c r="T9" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -15203,24 +15312,24 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -15230,14 +15339,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15245,7 +15354,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15448,33 +15557,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15522,9 +15631,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G86"/>
+  <dimension ref="A3:G87"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15550,1714 +15661,1733 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>261</v>
-      </c>
       <c r="D17" s="40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>272</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="41" t="s">
         <v>276</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>283</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>316</v>
+        <v>695</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>317</v>
+        <v>696</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="10" t="s">
-        <v>318</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B36" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>241</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
+      <c r="A42" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
+      <c r="A47" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>324</v>
-      </c>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="E60" s="9" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="B61" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>187</v>
+        <v>392</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>146</v>
+        <v>396</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>402</v>
+        <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
+      <c r="A67" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B67" s="9" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>413</v>
-      </c>
       <c r="D69" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="10" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>423</v>
+        <v>176</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>429</v>
+        <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G74" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
+      <c r="A77" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B77" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>447</v>
+        <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B82" s="9" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G82" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>460</v>
+        <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G85" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A87" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -17275,7 +17405,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G84"/>
+  <dimension ref="A4:G86"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
@@ -17294,944 +17424,944 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>261</v>
-      </c>
       <c r="D17" s="40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>272</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="41" t="s">
         <v>276</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>283</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>473</v>
-      </c>
       <c r="D31" s="45" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="45"/>
       <c r="G32" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="45"/>
       <c r="G34" s="46" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="46" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="45"/>
       <c r="G36" s="45" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>486</v>
-      </c>
       <c r="D37" s="45" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="45" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="45" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="46" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="46" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="46" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="46" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="46" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="45"/>
       <c r="G48" s="46" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="45"/>
       <c r="G49" s="46" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="45"/>
       <c r="G50" s="46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18240,17 +18370,17 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="45"/>
       <c r="G51" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18259,705 +18389,749 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="45"/>
       <c r="G52" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="45"/>
       <c r="G56" s="46" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A59" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="45"/>
       <c r="G59" s="46" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="45" t="s">
-        <v>324</v>
+      <c r="A60" s="48" t="s">
+        <v>704</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>529</v>
+        <v>705</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>530</v>
+        <v>706</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="45"/>
       <c r="G60" s="46" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45" t="s">
-        <v>393</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="46" t="s">
-        <v>396</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="45"/>
       <c r="G62" s="46" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="45"/>
       <c r="G63" s="46" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45"/>
       <c r="B64" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F64" s="45"/>
       <c r="G64" s="46" t="s">
-        <v>146</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="46" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="45" t="s">
-        <v>241</v>
-      </c>
+      <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="45"/>
       <c r="G66" s="46" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="45"/>
+      <c r="A67" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="B67" s="45" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>188</v>
+        <v>402</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" s="45"/>
       <c r="G67" s="46" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45"/>
       <c r="B68" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>536</v>
+        <v>185</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="45"/>
       <c r="G68" s="46" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45"/>
       <c r="B69" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69" s="45"/>
       <c r="G69" s="46" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="45" t="s">
-        <v>241</v>
-      </c>
+      <c r="A70" s="45"/>
       <c r="B70" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" s="45"/>
       <c r="G70" s="46" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>543</v>
+        <v>410</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="46" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>192</v>
+        <v>541</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>241</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F72" s="45"/>
       <c r="G72" s="46" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>548</v>
+        <v>701</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>549</v>
+        <v>702</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="G73" s="46" t="s">
-        <v>550</v>
+        <v>703</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>151</v>
+        <v>543</v>
       </c>
       <c r="D74" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>688</v>
+        <v>413</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="C78" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="D78" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="E75" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G75" s="46" t="s">
+      <c r="E78" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" s="46" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>556</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>687</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>427</v>
+        <v>685</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G79" s="46" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>562</v>
+        <v>684</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="G80" s="46" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>562</v>
+        <v>424</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>446</v>
+        <v>557</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>447</v>
+        <v>173</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G81" s="46" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>449</v>
+        <v>559</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>451</v>
+        <v>561</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="45" t="s">
-        <v>241</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F82" s="45"/>
       <c r="G82" s="46" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>158</v>
+        <v>559</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G83" s="46" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B84" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" s="46" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="46" t="s">
         <v>569</v>
-      </c>
-      <c r="C84" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -19012,16 +19186,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -19089,61 +19263,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19155,39 +19329,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19207,7 +19381,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19215,14 +19389,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19242,7 +19416,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19253,7 +19427,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19273,7 +19447,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19284,7 +19458,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19304,7 +19478,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -21935,16 +22109,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -22012,61 +22186,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22081,16 +22255,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -22103,30 +22277,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22146,26 +22320,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22185,7 +22359,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22196,7 +22370,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22216,7 +22390,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22227,7 +22401,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22247,7 +22421,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22258,7 +22432,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22287,7 +22461,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22316,7 +22490,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22345,7 +22519,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22374,7 +22548,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22403,7 +22577,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22432,7 +22606,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22461,7 +22635,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22490,7 +22664,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22519,7 +22693,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22548,7 +22722,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22577,7 +22751,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22606,7 +22780,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22635,7 +22809,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22664,7 +22838,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22693,7 +22867,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22722,7 +22896,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22751,7 +22925,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22780,7 +22954,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22809,7 +22983,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -22838,7 +23012,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -22867,7 +23041,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -22896,7 +23070,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -22925,7 +23099,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -22954,7 +23128,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -22983,7 +23157,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -23012,7 +23186,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -23041,7 +23215,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -23070,7 +23244,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -23099,7 +23273,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23128,7 +23302,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -24933,46 +25107,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -24986,37 +25160,37 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25027,24 +25201,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25060,16 +25234,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25085,7 +25259,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -25106,7 +25280,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25127,7 +25301,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -15634,7 +15634,7 @@
   <dimension ref="A3:G87"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15643,8 +15643,9 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="68.375" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -15670,13 +15671,13 @@
         <v>213</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -15690,12 +15691,12 @@
       <c r="D5" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -15709,12 +15710,12 @@
       <c r="D6" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -15728,12 +15729,12 @@
       <c r="D7" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -15747,12 +15748,12 @@
       <c r="D8" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -15766,12 +15767,12 @@
       <c r="D9" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -15785,12 +15786,12 @@
       <c r="D10" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -15806,12 +15807,12 @@
       <c r="D11" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -15825,12 +15826,12 @@
       <c r="D12" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -15844,12 +15845,12 @@
       <c r="D13" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -15863,12 +15864,12 @@
       <c r="D14" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -15884,12 +15885,12 @@
       <c r="D15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>222</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -15903,12 +15904,12 @@
       <c r="D16" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -15922,12 +15923,12 @@
       <c r="D17" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -15941,12 +15942,12 @@
       <c r="D18" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -15962,12 +15963,12 @@
       <c r="D19" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -15984,13 +15985,13 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -16007,13 +16008,13 @@
         <v>271</v>
       </c>
       <c r="E21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -16030,13 +16031,13 @@
         <v>275</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -16050,12 +16051,12 @@
       <c r="D23" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -16071,12 +16072,12 @@
       <c r="D24" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -16092,12 +16093,12 @@
       <c r="D25" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -16113,12 +16114,12 @@
       <c r="D26" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -16134,12 +16135,12 @@
       <c r="D27" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -16155,12 +16156,12 @@
       <c r="D28" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>294</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -16176,12 +16177,12 @@
       <c r="D29" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>294</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -16197,12 +16198,12 @@
       <c r="D30" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -16218,12 +16219,12 @@
       <c r="D31" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -16239,12 +16240,12 @@
       <c r="D32" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -16258,12 +16259,12 @@
       <c r="D33" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -16277,12 +16278,12 @@
       <c r="D34" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -16296,12 +16297,12 @@
       <c r="D35" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -16317,12 +16318,12 @@
       <c r="D36" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -16336,12 +16337,12 @@
       <c r="D37" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -16355,12 +16356,12 @@
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -16376,12 +16377,12 @@
       <c r="D39" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16397,12 +16398,12 @@
       <c r="D40" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16418,12 +16419,12 @@
       <c r="D41" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -16439,12 +16440,12 @@
       <c r="D42" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -16458,12 +16459,12 @@
       <c r="D43" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -16479,12 +16480,12 @@
       <c r="D44" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -16500,12 +16501,12 @@
       <c r="D45" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -16521,12 +16522,12 @@
       <c r="D46" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -16542,12 +16543,12 @@
       <c r="D47" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -16561,12 +16562,12 @@
       <c r="D48" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16582,12 +16583,12 @@
       <c r="D49" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -16603,12 +16604,12 @@
       <c r="D50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -16624,12 +16625,12 @@
       <c r="D51" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -16643,12 +16644,12 @@
       <c r="D52" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -16664,12 +16665,12 @@
       <c r="D53" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9"/>
+      <c r="F53" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -16685,12 +16686,12 @@
       <c r="D54" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -16706,12 +16707,12 @@
       <c r="D55" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -16727,12 +16728,12 @@
       <c r="D56" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="9"/>
+      <c r="F56" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -16748,12 +16749,12 @@
       <c r="D57" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -16769,12 +16770,12 @@
       <c r="D58" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16790,12 +16791,12 @@
       <c r="D59" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -16811,12 +16812,12 @@
       <c r="D60" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -16832,12 +16833,12 @@
       <c r="D61" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -16851,12 +16852,12 @@
       <c r="D62" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -16870,12 +16871,12 @@
       <c r="D63" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -16889,12 +16890,12 @@
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="10" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -16908,12 +16909,12 @@
       <c r="D65" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -16927,12 +16928,12 @@
       <c r="D66" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="9"/>
+      <c r="F66" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -16948,12 +16949,12 @@
       <c r="D67" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -16967,12 +16968,12 @@
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -16986,12 +16987,12 @@
       <c r="D69" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -17007,12 +17008,12 @@
       <c r="D70" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="9"/>
+      <c r="F70" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -17028,12 +17029,12 @@
       <c r="D71" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -17049,12 +17050,12 @@
       <c r="D72" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="9"/>
+      <c r="F72" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -17071,13 +17072,13 @@
         <v>420</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -17094,13 +17095,13 @@
         <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -17116,12 +17117,12 @@
       <c r="D75" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -17137,12 +17138,12 @@
       <c r="D76" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="9"/>
+      <c r="F76" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -17158,12 +17159,12 @@
       <c r="D77" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -17177,12 +17178,12 @@
       <c r="D78" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -17199,13 +17200,13 @@
         <v>438</v>
       </c>
       <c r="E79" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -17222,13 +17223,13 @@
         <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -17245,13 +17246,13 @@
         <v>444</v>
       </c>
       <c r="E81" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -17268,13 +17269,13 @@
         <v>448</v>
       </c>
       <c r="E82" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -17288,12 +17289,12 @@
       <c r="D83" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -17310,13 +17311,13 @@
         <v>454</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G84" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -17333,13 +17334,13 @@
         <v>459</v>
       </c>
       <c r="E85" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -17355,12 +17356,12 @@
       <c r="D86" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="9"/>
+      <c r="F86" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -17376,12 +17377,12 @@
       <c r="D87" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="10" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -17414,9 +17415,9 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="37.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17433,13 +17434,13 @@
         <v>213</v>
       </c>
       <c r="E4" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -17453,12 +17454,12 @@
       <c r="D5" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -17472,12 +17473,12 @@
       <c r="D6" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -17491,12 +17492,12 @@
       <c r="D7" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -17510,12 +17511,12 @@
       <c r="D8" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -17529,12 +17530,12 @@
       <c r="D9" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -17548,12 +17549,12 @@
       <c r="D10" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -17569,12 +17570,12 @@
       <c r="D11" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -17588,12 +17589,12 @@
       <c r="D12" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -17607,12 +17608,12 @@
       <c r="D13" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -17626,12 +17627,12 @@
       <c r="D14" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -17647,12 +17648,12 @@
       <c r="D15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>222</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -17666,12 +17667,12 @@
       <c r="D16" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -17685,12 +17686,12 @@
       <c r="D17" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -17704,12 +17705,12 @@
       <c r="D18" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -17725,12 +17726,12 @@
       <c r="D19" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -17747,13 +17748,13 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -17770,13 +17771,13 @@
         <v>271</v>
       </c>
       <c r="E21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -17793,13 +17794,13 @@
         <v>275</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -17813,12 +17814,12 @@
       <c r="D23" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -17834,12 +17835,12 @@
       <c r="D24" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -17855,12 +17856,12 @@
       <c r="D25" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -17876,12 +17877,12 @@
       <c r="D26" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -17897,12 +17898,12 @@
       <c r="D27" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -17918,12 +17919,12 @@
       <c r="D28" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -17939,12 +17940,12 @@
       <c r="D29" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17958,12 +17959,12 @@
       <c r="D30" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="G30" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17977,12 +17978,12 @@
       <c r="D31" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="G31" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17996,12 +17997,12 @@
       <c r="D32" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="G32" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18015,12 +18016,12 @@
       <c r="D33" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="G33" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18034,12 +18035,12 @@
       <c r="D34" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="G34" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18055,12 +18056,12 @@
       <c r="D35" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="45"/>
+      <c r="F35" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="G35" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18074,12 +18075,12 @@
       <c r="D36" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="G36" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18093,12 +18094,12 @@
       <c r="D37" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="G37" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18112,12 +18113,12 @@
       <c r="D38" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="G38" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18131,12 +18132,12 @@
       <c r="D39" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="G39" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18152,12 +18153,12 @@
       <c r="D40" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="G40" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18171,12 +18172,12 @@
       <c r="D41" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="G41" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18190,12 +18191,12 @@
       <c r="D42" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="45"/>
+      <c r="F42" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="G42" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18209,12 +18210,12 @@
       <c r="D43" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="45"/>
+      <c r="F43" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="G43" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18228,12 +18229,12 @@
       <c r="D44" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="45"/>
+      <c r="F44" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="G44" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18249,12 +18250,12 @@
       <c r="D45" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="G45" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18271,13 +18272,13 @@
         <v>506</v>
       </c>
       <c r="E46" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="G46" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18293,12 +18294,12 @@
       <c r="D47" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="45"/>
+      <c r="F47" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="G47" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18314,12 +18315,12 @@
       <c r="D48" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="45"/>
+      <c r="F48" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="G48" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18335,12 +18336,12 @@
       <c r="D49" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="G49" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18356,12 +18357,12 @@
       <c r="D50" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="G50" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18375,12 +18376,12 @@
       <c r="D51" s="45" t="s">
         <v>520</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="45"/>
+      <c r="F51" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="G51" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18394,12 +18395,12 @@
       <c r="D52" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="45"/>
+      <c r="F52" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="G52" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18416,13 +18417,13 @@
         <v>524</v>
       </c>
       <c r="E53" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="G53" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18439,13 +18440,13 @@
         <v>574</v>
       </c>
       <c r="E54" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="G54" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18462,13 +18463,13 @@
         <v>577</v>
       </c>
       <c r="E55" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="G55" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18484,12 +18485,12 @@
       <c r="D56" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="45"/>
+      <c r="F56" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="G56" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="46" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -18506,13 +18507,13 @@
         <v>583</v>
       </c>
       <c r="E57" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="G57" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -18529,13 +18530,13 @@
         <v>586</v>
       </c>
       <c r="E58" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="G58" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18551,12 +18552,12 @@
       <c r="D59" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="45"/>
+      <c r="F59" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="G59" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="46" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18572,12 +18573,12 @@
       <c r="D60" s="45" t="s">
         <v>706</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="45"/>
+      <c r="F60" s="46" t="s">
+        <v>707</v>
+      </c>
+      <c r="G60" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="46" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18593,12 +18594,12 @@
       <c r="D61" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E61" s="45"/>
+      <c r="F61" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="46" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18612,12 +18613,12 @@
       <c r="D62" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="45"/>
+      <c r="F62" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="46" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18631,12 +18632,12 @@
       <c r="D63" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="45"/>
+      <c r="F63" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18650,12 +18651,12 @@
       <c r="D64" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="45"/>
+      <c r="F64" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G64" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F64" s="45"/>
-      <c r="G64" s="46" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18669,12 +18670,12 @@
       <c r="D65" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="45"/>
+      <c r="F65" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18688,12 +18689,12 @@
       <c r="D66" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="45"/>
+      <c r="F66" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F66" s="45"/>
-      <c r="G66" s="46" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18709,12 +18710,12 @@
       <c r="D67" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="45"/>
+      <c r="F67" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18728,12 +18729,12 @@
       <c r="D68" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="45"/>
+      <c r="F68" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="G68" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18747,12 +18748,12 @@
       <c r="D69" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="45"/>
+      <c r="F69" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="G69" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F69" s="45"/>
-      <c r="G69" s="46" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18766,12 +18767,12 @@
       <c r="D70" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="45"/>
+      <c r="F70" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="46" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18787,12 +18788,12 @@
       <c r="D71" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="45"/>
+      <c r="F71" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18808,12 +18809,12 @@
       <c r="D72" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="45"/>
+      <c r="F72" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="G72" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="46" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18830,13 +18831,13 @@
         <v>702</v>
       </c>
       <c r="E73" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>703</v>
+      </c>
+      <c r="G73" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18853,13 +18854,13 @@
         <v>189</v>
       </c>
       <c r="E74" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G74" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G74" s="46" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18875,12 +18876,12 @@
       <c r="D75" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="45"/>
+      <c r="F75" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18897,13 +18898,13 @@
         <v>186</v>
       </c>
       <c r="E76" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18920,13 +18921,13 @@
         <v>550</v>
       </c>
       <c r="E77" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="G77" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F77" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18943,13 +18944,13 @@
         <v>553</v>
       </c>
       <c r="E78" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="G78" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F78" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18966,13 +18967,13 @@
         <v>174</v>
       </c>
       <c r="E79" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18989,13 +18990,13 @@
         <v>571</v>
       </c>
       <c r="E80" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19012,13 +19013,13 @@
         <v>173</v>
       </c>
       <c r="E81" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="G81" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G81" s="46" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19034,12 +19035,12 @@
       <c r="D82" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="45"/>
+      <c r="F82" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="G82" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F82" s="45"/>
-      <c r="G82" s="46" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19056,13 +19057,13 @@
         <v>444</v>
       </c>
       <c r="E83" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="G83" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19079,13 +19080,13 @@
         <v>448</v>
       </c>
       <c r="E84" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19102,13 +19103,13 @@
         <v>454</v>
       </c>
       <c r="E85" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="G85" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F85" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G85" s="46" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19125,13 +19126,13 @@
         <v>568</v>
       </c>
       <c r="E86" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="G86" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F86" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G86" s="46" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="709">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>chassis.sn</t>
-  </si>
-  <si>
-    <t>virtual_drive</t>
   </si>
   <si>
     <t>network</t>
@@ -2201,10 +2198,11 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>win2012g</t>
-  </si>
-  <si>
     <t>192.168.0.16</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>hdd</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -4583,7 +4581,7 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
@@ -4620,13 +4618,13 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27">
@@ -4640,10 +4638,10 @@
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="R53" s="27" t="s">
         <v>687</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>688</v>
       </c>
       <c r="S53" s="27">
         <v>1</v>
@@ -4662,19 +4660,19 @@
         <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
@@ -4689,10 +4687,10 @@
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="R54" s="27" t="s">
         <v>687</v>
-      </c>
-      <c r="R54" s="27" t="s">
-        <v>688</v>
       </c>
       <c r="S54" s="27">
         <v>1</v>
@@ -4714,20 +4712,20 @@
         <v>91</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K55" s="27">
         <v>1</v>
@@ -4740,10 +4738,10 @@
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="R55" s="27" t="s">
         <v>687</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>688</v>
       </c>
       <c r="S55" s="27">
         <v>1</v>
@@ -6211,16 +6209,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6291,13 +6289,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -6306,43 +6304,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6360,13 +6358,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6378,37 +6376,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6428,26 +6426,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>615</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>616</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>617</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6467,7 +6465,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6475,14 +6473,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6502,7 +6500,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6510,14 +6508,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6537,7 +6535,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6548,7 +6546,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6577,7 +6575,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9164,16 +9162,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9244,13 +9242,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -9259,43 +9257,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9310,16 +9308,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9332,30 +9330,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9375,26 +9373,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9414,7 +9412,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9425,7 +9423,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9445,7 +9443,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9456,7 +9454,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9476,7 +9474,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9487,7 +9485,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9516,7 +9514,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9545,7 +9543,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9574,7 +9572,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9603,7 +9601,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9632,7 +9630,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9661,7 +9659,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9690,7 +9688,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9719,7 +9717,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9748,7 +9746,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9777,7 +9775,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9806,7 +9804,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9835,7 +9833,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9864,7 +9862,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9893,7 +9891,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9922,7 +9920,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9951,7 +9949,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9980,7 +9978,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -10009,7 +10007,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -10038,7 +10036,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -10067,7 +10065,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -10096,7 +10094,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -10125,7 +10123,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10154,7 +10152,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10183,7 +10181,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10212,7 +10210,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10241,7 +10239,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10270,7 +10268,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10299,7 +10297,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10328,7 +10326,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10357,7 +10355,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12154,16 +12152,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -12222,22 +12220,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12251,13 +12249,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12266,20 +12264,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12295,16 +12293,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12320,7 +12318,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12341,7 +12339,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12362,7 +12360,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -14190,7 +14188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14419,10 +14419,10 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="R5" s="5">
         <v>1</v>
@@ -14439,17 +14439,17 @@
         <v>84</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>88</v>
@@ -14474,25 +14474,23 @@
         <v>90</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>708</v>
+        <v>91</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -14505,10 +14503,10 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="R7" s="5">
         <v>1</v>
@@ -14923,7 +14921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z16"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15326,14 +15324,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>204</v>
+        <v>708</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15341,7 +15339,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15544,16 +15542,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15561,16 +15559,16 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15649,321 +15647,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>224</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>239</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>240</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>243</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>244</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>247</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>249</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>250</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>252</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>253</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>259</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>262</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -15972,222 +15970,222 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>272</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>276</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>280</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>281</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>283</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>284</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>287</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>290</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>84</v>
@@ -16195,20 +16193,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>84</v>
@@ -16216,20 +16214,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>84</v>
@@ -16238,17 +16236,17 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>84</v>
@@ -16257,13 +16255,13 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
@@ -16276,17 +16274,17 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>692</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>693</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>84</v>
@@ -16294,20 +16292,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>84</v>
@@ -16316,17 +16314,17 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>84</v>
@@ -16335,17 +16333,17 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>84</v>
@@ -16353,20 +16351,20 @@
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>84</v>
@@ -16374,20 +16372,20 @@
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>84</v>
@@ -16395,20 +16393,20 @@
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>84</v>
@@ -16416,20 +16414,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>84</v>
@@ -16441,14 +16439,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>84</v>
@@ -16456,20 +16454,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>84</v>
@@ -16477,20 +16475,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>84</v>
@@ -16498,20 +16496,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>84</v>
@@ -16519,20 +16517,20 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>343</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>344</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>84</v>
@@ -16544,35 +16542,35 @@
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>84</v>
@@ -16580,7 +16578,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
@@ -16593,28 +16591,28 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>84</v>
@@ -16626,14 +16624,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>84</v>
@@ -16641,20 +16639,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>84</v>
@@ -16662,20 +16660,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>84</v>
@@ -16683,20 +16681,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>84</v>
@@ -16704,20 +16702,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>84</v>
@@ -16725,20 +16723,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>84</v>
@@ -16746,20 +16744,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>84</v>
@@ -16767,20 +16765,20 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
@@ -16788,41 +16786,41 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>383</v>
-      </c>
       <c r="C61" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>84</v>
@@ -16831,17 +16829,17 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>84</v>
@@ -16850,17 +16848,17 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>84</v>
@@ -16869,17 +16867,17 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>84</v>
@@ -16888,17 +16886,17 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>84</v>
@@ -16907,17 +16905,17 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>400</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>84</v>
@@ -16925,20 +16923,20 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>84</v>
@@ -16947,17 +16945,17 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>84</v>
@@ -16966,17 +16964,17 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>84</v>
@@ -16984,20 +16982,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>84</v>
@@ -17005,20 +17003,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>84</v>
@@ -17026,20 +17024,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>84</v>
@@ -17047,22 +17045,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>420</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>84</v>
@@ -17070,22 +17068,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>84</v>
@@ -17093,20 +17091,20 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>84</v>
@@ -17114,20 +17112,20 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>84</v>
@@ -17135,20 +17133,20 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>84</v>
@@ -17157,17 +17155,17 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>84</v>
@@ -17175,22 +17173,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>84</v>
@@ -17198,22 +17196,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>84</v>
@@ -17221,22 +17219,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>84</v>
@@ -17244,22 +17242,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>449</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>84</v>
@@ -17271,14 +17269,14 @@
         <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>84</v>
@@ -17286,22 +17284,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>84</v>
@@ -17309,22 +17307,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>84</v>
@@ -17332,20 +17330,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="C86" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>84</v>
@@ -17353,20 +17351,20 @@
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="C87" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>84</v>
@@ -17412,321 +17410,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>218</v>
-      </c>
       <c r="G4" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>224</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>239</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>240</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>243</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>244</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>247</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>249</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>250</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>252</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>253</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>259</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>262</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -17735,220 +17733,220 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>272</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>276</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>280</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>281</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>283</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>284</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>287</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>290</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>467</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>468</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>469</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>90</v>
@@ -17957,17 +17955,17 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C31" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>470</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>471</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>90</v>
@@ -17976,17 +17974,17 @@
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C32" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>472</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>473</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
@@ -17995,17 +17993,17 @@
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C33" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>474</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>475</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
@@ -18014,17 +18012,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>476</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>477</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
@@ -18032,20 +18030,20 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E35" s="45"/>
       <c r="F35" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>90</v>
@@ -18054,17 +18052,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>481</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>482</v>
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>90</v>
@@ -18073,17 +18071,17 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C37" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
@@ -18092,17 +18090,17 @@
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C38" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>486</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>487</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
@@ -18111,17 +18109,17 @@
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C39" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>489</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>490</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>90</v>
@@ -18129,20 +18127,20 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>492</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>493</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>90</v>
@@ -18151,7 +18149,7 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>141</v>
@@ -18161,7 +18159,7 @@
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
@@ -18170,17 +18168,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C42" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>496</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>497</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
@@ -18189,7 +18187,7 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>142</v>
@@ -18199,7 +18197,7 @@
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>90</v>
@@ -18208,17 +18206,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C44" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>500</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>501</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>90</v>
@@ -18226,20 +18224,20 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
@@ -18247,22 +18245,22 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>505</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E46" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>506</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>507</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
@@ -18270,20 +18268,20 @@
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
@@ -18291,20 +18289,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
@@ -18312,20 +18310,20 @@
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>512</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>513</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>90</v>
@@ -18333,20 +18331,20 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>516</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>517</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>90</v>
@@ -18358,14 +18356,14 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>519</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>520</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>90</v>
@@ -18377,14 +18375,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>521</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>522</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>90</v>
@@ -18392,20 +18390,20 @@
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>579</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>580</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>90</v>
@@ -18413,22 +18411,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>583</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>584</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>90</v>
@@ -18436,22 +18434,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="E55" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>586</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>587</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>90</v>
@@ -18459,20 +18457,20 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>178</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="46" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>90</v>
@@ -18480,20 +18478,20 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A57" s="48" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>702</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>703</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>90</v>
@@ -18501,20 +18499,20 @@
     </row>
     <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>526</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>527</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>90</v>
@@ -18523,17 +18521,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="45"/>
       <c r="B59" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="D59" s="45" t="s">
         <v>391</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>392</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
@@ -18542,17 +18540,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="45"/>
       <c r="B60" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>90</v>
@@ -18561,17 +18559,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="45"/>
       <c r="B61" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D61" s="45" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>90</v>
@@ -18580,7 +18578,7 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" s="45" t="s">
         <v>143</v>
@@ -18599,17 +18597,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>90</v>
@@ -18617,20 +18615,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>401</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>402</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>90</v>
@@ -18639,17 +18637,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>185</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>90</v>
@@ -18658,17 +18656,17 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>532</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>533</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>90</v>
@@ -18677,17 +18675,17 @@
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="45"/>
       <c r="B67" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C67" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>535</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>536</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>90</v>
@@ -18695,20 +18693,20 @@
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>90</v>
@@ -18716,20 +18714,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C69" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>540</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>541</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>90</v>
@@ -18737,22 +18735,22 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>698</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="E70" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="46" t="s">
         <v>699</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>700</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>90</v>
@@ -18760,22 +18758,22 @@
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>90</v>
@@ -18783,20 +18781,20 @@
     </row>
     <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C72" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>545</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>546</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>90</v>
@@ -18804,10 +18802,10 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>148</v>
@@ -18816,10 +18814,10 @@
         <v>186</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>90</v>
@@ -18827,22 +18825,22 @@
     </row>
     <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="E74" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="46" t="s">
         <v>550</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>551</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>90</v>
@@ -18850,22 +18848,22 @@
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="E75" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>553</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>554</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -18873,22 +18871,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>174</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>90</v>
@@ -18896,22 +18894,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C77" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="E77" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" s="46" t="s">
         <v>571</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>572</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>90</v>
@@ -18919,22 +18917,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D78" s="45" t="s">
         <v>173</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>90</v>
@@ -18942,20 +18940,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="45" t="s">
         <v>560</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>561</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>90</v>
@@ -18963,22 +18961,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>444</v>
-      </c>
       <c r="E80" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>90</v>
@@ -18986,22 +18984,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="E81" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="46" t="s">
         <v>577</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>578</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>90</v>
@@ -19009,22 +19007,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="E82" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="46" t="s">
         <v>524</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>525</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>90</v>
@@ -19032,22 +19030,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B83" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="C83" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="D83" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>448</v>
-      </c>
       <c r="E83" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>90</v>
@@ -19055,22 +19053,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84" s="45" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="45" t="s">
-        <v>454</v>
-      </c>
       <c r="E84" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>90</v>
@@ -19078,22 +19076,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B85" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="C85" s="45" t="s">
         <v>566</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="D85" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="E85" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>568</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>569</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>90</v>
@@ -19101,22 +19099,22 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="E86" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="46" t="s">
         <v>574</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>575</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>90</v>
@@ -19174,16 +19172,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -19254,13 +19252,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -19269,43 +19267,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19317,39 +19315,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19369,7 +19367,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19377,14 +19375,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19404,7 +19402,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19415,7 +19413,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19435,7 +19433,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19446,7 +19444,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19466,7 +19464,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22097,16 +22095,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -22177,13 +22175,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -22192,43 +22190,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22243,16 +22241,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -22265,30 +22263,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22308,26 +22306,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22347,7 +22345,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22358,7 +22356,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22378,7 +22376,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22389,7 +22387,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22409,7 +22407,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22420,7 +22418,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22449,7 +22447,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22478,7 +22476,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22507,7 +22505,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22536,7 +22534,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22565,7 +22563,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22594,7 +22592,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22623,7 +22621,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22652,7 +22650,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22681,7 +22679,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22710,7 +22708,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22739,7 +22737,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22768,7 +22766,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22797,7 +22795,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22826,7 +22824,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22855,7 +22853,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22884,7 +22882,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22913,7 +22911,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22942,7 +22940,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22971,7 +22969,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -23000,7 +22998,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -23029,7 +23027,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -23058,7 +23056,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -23087,7 +23085,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -23116,7 +23114,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -23145,7 +23143,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -23174,7 +23172,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -23203,7 +23201,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -23232,7 +23230,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -23261,7 +23259,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23290,7 +23288,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -25095,16 +25093,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -25163,22 +25161,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25189,24 +25187,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25222,16 +25220,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25247,7 +25245,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -25268,7 +25266,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25289,7 +25287,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="8325" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$108</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1557349583" val="944" rev="123" revOS="4"/>
@@ -628,9 +628,6 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>Nic</t>
-  </si>
-  <si>
     <t>iLO</t>
   </si>
   <si>
@@ -2204,6 +2201,9 @@
   <si>
     <t>hdd</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ip_mng</t>
   </si>
 </sst>
 </file>
@@ -4581,7 +4581,7 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
@@ -4618,13 +4618,13 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27">
@@ -4638,10 +4638,10 @@
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="R53" s="27" t="s">
         <v>686</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>687</v>
       </c>
       <c r="S53" s="27">
         <v>1</v>
@@ -4660,19 +4660,19 @@
         <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
@@ -4687,10 +4687,10 @@
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="R54" s="27" t="s">
         <v>686</v>
-      </c>
-      <c r="R54" s="27" t="s">
-        <v>687</v>
       </c>
       <c r="S54" s="27">
         <v>1</v>
@@ -4712,20 +4712,20 @@
         <v>91</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K55" s="27">
         <v>1</v>
@@ -4738,10 +4738,10 @@
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="R55" s="27" t="s">
         <v>686</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>687</v>
       </c>
       <c r="S55" s="27">
         <v>1</v>
@@ -6209,16 +6209,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6289,13 +6289,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -6304,43 +6304,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6358,13 +6358,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6376,37 +6376,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6426,26 +6426,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>613</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>614</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6465,7 +6465,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6473,14 +6473,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6500,7 +6500,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6508,14 +6508,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6535,7 +6535,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6546,7 +6546,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6575,7 +6575,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9162,16 +9162,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9242,13 +9242,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -9257,43 +9257,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9308,16 +9308,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9330,30 +9330,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>628</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>629</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9373,26 +9373,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>635</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9412,7 +9412,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9423,7 +9423,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9443,7 +9443,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9454,7 +9454,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9474,7 +9474,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9485,7 +9485,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9514,7 +9514,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9543,7 +9543,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9572,7 +9572,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9601,7 +9601,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9630,7 +9630,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9659,7 +9659,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9688,7 +9688,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9717,7 +9717,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9746,7 +9746,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9775,7 +9775,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9804,7 +9804,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9833,7 +9833,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9862,7 +9862,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9891,7 +9891,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9920,7 +9920,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9949,7 +9949,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9978,7 +9978,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -10007,7 +10007,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -10036,7 +10036,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -10065,7 +10065,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -10094,7 +10094,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -10123,7 +10123,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10152,7 +10152,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10181,7 +10181,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10210,7 +10210,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10239,7 +10239,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10268,7 +10268,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10297,7 +10297,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10326,7 +10326,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10355,7 +10355,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12152,16 +12152,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -12220,22 +12220,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12249,13 +12249,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>678</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12264,20 +12264,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>680</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12293,16 +12293,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12318,7 +12318,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12339,7 +12339,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12360,7 +12360,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -14188,9 +14188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14419,10 +14417,10 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="R5" s="5">
         <v>1</v>
@@ -14439,17 +14437,17 @@
         <v>84</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>88</v>
@@ -14468,7 +14466,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>90</v>
@@ -14477,20 +14475,20 @@
         <v>91</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>91</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -14503,10 +14501,10 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="R7" s="5">
         <v>1</v>
@@ -14921,7 +14919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15253,7 +15251,7 @@
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30" t="s">
-        <v>195</v>
+        <v>708</v>
       </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -15261,7 +15259,7 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15282,14 +15280,14 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
       <c r="T9" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -15297,24 +15295,24 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>202</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -15324,14 +15322,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15339,7 +15337,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15542,16 +15540,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15559,16 +15557,16 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15647,321 +15645,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>219</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>220</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>224</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>227</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>234</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>235</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>239</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>242</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>243</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>246</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>249</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>251</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>252</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>257</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>261</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" s="40" t="s">
         <v>263</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>264</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -15970,222 +15968,222 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>271</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>275</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>277</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>278</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>279</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>291</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>292</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>297</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>84</v>
@@ -16193,20 +16191,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>84</v>
@@ -16214,20 +16212,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>84</v>
@@ -16236,17 +16234,17 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>84</v>
@@ -16255,13 +16253,13 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
@@ -16274,17 +16272,17 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>691</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>692</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>84</v>
@@ -16292,20 +16290,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>84</v>
@@ -16314,17 +16312,17 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>84</v>
@@ -16333,17 +16331,17 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>84</v>
@@ -16351,20 +16349,20 @@
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>84</v>
@@ -16372,20 +16370,20 @@
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>84</v>
@@ -16393,20 +16391,20 @@
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>84</v>
@@ -16414,20 +16412,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>84</v>
@@ -16439,14 +16437,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>84</v>
@@ -16454,20 +16452,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>84</v>
@@ -16475,20 +16473,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>336</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>337</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>84</v>
@@ -16496,20 +16494,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>84</v>
@@ -16517,20 +16515,20 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>84</v>
@@ -16542,35 +16540,35 @@
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>346</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>84</v>
@@ -16578,7 +16576,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
@@ -16591,28 +16589,28 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>84</v>
@@ -16624,14 +16622,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>84</v>
@@ -16639,20 +16637,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>84</v>
@@ -16660,20 +16658,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>363</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>84</v>
@@ -16681,20 +16679,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>84</v>
@@ -16702,20 +16700,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>84</v>
@@ -16723,20 +16721,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>84</v>
@@ -16744,20 +16742,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>84</v>
@@ -16765,20 +16763,20 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
@@ -16786,41 +16784,41 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="C61" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>84</v>
@@ -16829,17 +16827,17 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>84</v>
@@ -16848,17 +16846,17 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>84</v>
@@ -16867,17 +16865,17 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>84</v>
@@ -16886,17 +16884,17 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>84</v>
@@ -16905,17 +16903,17 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>84</v>
@@ -16923,20 +16921,20 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>84</v>
@@ -16945,17 +16943,17 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>84</v>
@@ -16964,17 +16962,17 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>84</v>
@@ -16982,20 +16980,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>84</v>
@@ -17003,20 +17001,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>84</v>
@@ -17024,20 +17022,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>84</v>
@@ -17045,22 +17043,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>420</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>84</v>
@@ -17068,22 +17066,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>84</v>
@@ -17091,20 +17089,20 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>84</v>
@@ -17112,20 +17110,20 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>84</v>
@@ -17133,20 +17131,20 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>84</v>
@@ -17155,17 +17153,17 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>84</v>
@@ -17173,22 +17171,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>84</v>
@@ -17196,22 +17194,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>84</v>
@@ -17219,22 +17217,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>84</v>
@@ -17242,22 +17240,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>84</v>
@@ -17269,14 +17267,14 @@
         <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>84</v>
@@ -17284,22 +17282,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>84</v>
@@ -17307,22 +17305,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>459</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>84</v>
@@ -17330,20 +17328,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="C86" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>84</v>
@@ -17351,20 +17349,20 @@
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="C87" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>84</v>
@@ -17410,321 +17408,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>217</v>
-      </c>
       <c r="G4" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>219</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>220</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>224</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>227</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>234</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>235</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>239</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>242</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>243</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>246</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>249</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>251</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>252</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>257</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>261</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>263</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>264</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -17733,220 +17731,220 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>271</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>275</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>277</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>278</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>279</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>291</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>292</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>297</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>466</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>467</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>468</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>90</v>
@@ -17955,17 +17953,17 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C31" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>469</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>470</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>90</v>
@@ -17974,17 +17972,17 @@
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>471</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>472</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
@@ -17993,17 +17991,17 @@
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>473</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>474</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
@@ -18012,17 +18010,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C34" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>475</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>476</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
@@ -18030,20 +18028,20 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E35" s="45"/>
       <c r="F35" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>90</v>
@@ -18052,17 +18050,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>480</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>481</v>
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>90</v>
@@ -18071,17 +18069,17 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C37" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>482</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>483</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
@@ -18090,17 +18088,17 @@
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C38" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>485</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>486</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
@@ -18109,17 +18107,17 @@
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C39" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>488</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>489</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>90</v>
@@ -18127,20 +18125,20 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>491</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>492</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>90</v>
@@ -18149,7 +18147,7 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>141</v>
@@ -18159,7 +18157,7 @@
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
@@ -18168,17 +18166,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C42" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>495</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>496</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
@@ -18187,7 +18185,7 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>142</v>
@@ -18197,7 +18195,7 @@
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>90</v>
@@ -18206,17 +18204,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C44" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>499</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>500</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>90</v>
@@ -18224,20 +18222,20 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
@@ -18245,22 +18243,22 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E46" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>505</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>506</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
@@ -18268,20 +18266,20 @@
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
@@ -18289,20 +18287,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
@@ -18310,20 +18308,20 @@
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>511</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>512</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>90</v>
@@ -18331,20 +18329,20 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>515</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>516</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>90</v>
@@ -18356,14 +18354,14 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>518</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>519</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>90</v>
@@ -18375,14 +18373,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>520</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>521</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>90</v>
@@ -18390,20 +18388,20 @@
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>578</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>579</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>90</v>
@@ -18411,22 +18409,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>582</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>583</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>90</v>
@@ -18434,22 +18432,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="E55" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>585</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>586</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>90</v>
@@ -18457,20 +18455,20 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>178</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>90</v>
@@ -18478,20 +18476,20 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A57" s="48" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>701</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>702</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>90</v>
@@ -18499,20 +18497,20 @@
     </row>
     <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>525</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>526</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>90</v>
@@ -18521,17 +18519,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="45"/>
       <c r="B59" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="D59" s="45" t="s">
         <v>390</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>391</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
@@ -18540,17 +18538,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="45"/>
       <c r="B60" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>90</v>
@@ -18559,17 +18557,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="45"/>
       <c r="B61" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D61" s="45" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>90</v>
@@ -18578,7 +18576,7 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C62" s="45" t="s">
         <v>143</v>
@@ -18597,17 +18595,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>90</v>
@@ -18615,20 +18613,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>400</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>401</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>90</v>
@@ -18637,17 +18635,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>185</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>90</v>
@@ -18656,17 +18654,17 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>531</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>532</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>90</v>
@@ -18675,17 +18673,17 @@
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="45"/>
       <c r="B67" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C67" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>534</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>535</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>90</v>
@@ -18693,20 +18691,20 @@
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>90</v>
@@ -18714,20 +18712,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C69" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>539</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>540</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>90</v>
@@ -18735,22 +18733,22 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="E70" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" s="46" t="s">
         <v>698</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>699</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>90</v>
@@ -18758,22 +18756,22 @@
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>90</v>
@@ -18781,20 +18779,20 @@
     </row>
     <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C72" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>544</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>545</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>90</v>
@@ -18802,10 +18800,10 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>148</v>
@@ -18814,10 +18812,10 @@
         <v>186</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>90</v>
@@ -18825,22 +18823,22 @@
     </row>
     <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>548</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="E74" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="46" t="s">
         <v>549</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>550</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>90</v>
@@ -18848,22 +18846,22 @@
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>551</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="E75" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>552</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>553</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -18871,22 +18869,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>174</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>90</v>
@@ -18894,22 +18892,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C77" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="E77" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="46" t="s">
         <v>570</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>571</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>90</v>
@@ -18917,22 +18915,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D78" s="45" t="s">
         <v>173</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>90</v>
@@ -18940,20 +18938,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>558</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="45" t="s">
         <v>559</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>560</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>90</v>
@@ -18961,22 +18959,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>443</v>
-      </c>
       <c r="E80" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>90</v>
@@ -18984,22 +18982,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="E81" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="46" t="s">
         <v>576</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>577</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>90</v>
@@ -19007,22 +19005,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="E82" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F82" s="46" t="s">
         <v>523</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>524</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>90</v>
@@ -19030,22 +19028,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="D83" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>447</v>
-      </c>
       <c r="E83" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>90</v>
@@ -19053,22 +19051,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="45" t="s">
-        <v>453</v>
-      </c>
       <c r="E84" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>90</v>
@@ -19076,22 +19074,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="C85" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="D85" s="45" t="s">
         <v>566</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="E85" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>567</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>568</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>90</v>
@@ -19099,22 +19097,22 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="E86" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="46" t="s">
         <v>573</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>574</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>90</v>
@@ -19172,16 +19170,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -19252,13 +19250,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -19267,43 +19265,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19315,39 +19313,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>603</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19367,7 +19365,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19375,14 +19373,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19402,7 +19400,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19413,7 +19411,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19433,7 +19431,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19444,7 +19442,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19464,7 +19462,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22095,16 +22093,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -22175,13 +22173,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -22190,43 +22188,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22241,16 +22239,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -22263,30 +22261,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>628</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>629</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22306,26 +22304,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>635</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22345,7 +22343,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22356,7 +22354,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22376,7 +22374,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22387,7 +22385,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22407,7 +22405,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22418,7 +22416,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22447,7 +22445,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22476,7 +22474,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22505,7 +22503,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22534,7 +22532,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22563,7 +22561,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22592,7 +22590,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22621,7 +22619,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22650,7 +22648,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22679,7 +22677,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22708,7 +22706,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22737,7 +22735,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22766,7 +22764,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22795,7 +22793,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22824,7 +22822,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22853,7 +22851,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22882,7 +22880,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22911,7 +22909,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22940,7 +22938,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22969,7 +22967,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -22998,7 +22996,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -23027,7 +23025,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -23056,7 +23054,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -23085,7 +23083,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -23114,7 +23112,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -23143,7 +23141,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -23172,7 +23170,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -23201,7 +23199,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -23230,7 +23228,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -23259,7 +23257,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23288,7 +23286,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -25093,16 +25091,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -25161,22 +25159,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25187,24 +25185,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>678</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>680</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25220,16 +25218,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25245,7 +25243,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -25266,7 +25264,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25287,7 +25285,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/src/main/resources/root/jp/サーバチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバチェックシート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\src\main\resources\root\jp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="8325" tabRatio="787" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="8325" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="708">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>CPU数</t>
-  </si>
-  <si>
-    <t>MEM容量</t>
   </si>
   <si>
     <t>_redmine:IAサーバ</t>
@@ -3190,7 +3187,7 @@
   </sheetPr>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4581,7 +4578,7 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
@@ -4618,13 +4615,13 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27">
@@ -4638,10 +4635,10 @@
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="R53" s="27" t="s">
         <v>685</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>686</v>
       </c>
       <c r="S53" s="27">
         <v>1</v>
@@ -4660,19 +4657,19 @@
         <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
@@ -4687,10 +4684,10 @@
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="R54" s="27" t="s">
         <v>685</v>
-      </c>
-      <c r="R54" s="27" t="s">
-        <v>686</v>
       </c>
       <c r="S54" s="27">
         <v>1</v>
@@ -4712,20 +4709,20 @@
         <v>91</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K55" s="27">
         <v>1</v>
@@ -4738,10 +4735,10 @@
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="R55" s="27" t="s">
         <v>685</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>686</v>
       </c>
       <c r="S55" s="27">
         <v>1</v>
@@ -6209,16 +6206,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6289,58 +6286,58 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6358,13 +6355,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6376,37 +6373,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6426,26 +6423,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>615</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6465,7 +6462,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6473,14 +6470,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6500,7 +6497,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6508,14 +6505,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6535,7 +6532,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6546,7 +6543,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6575,7 +6572,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9162,16 +9159,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9242,58 +9239,58 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9308,16 +9305,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9330,30 +9327,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>630</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9373,26 +9370,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>634</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9412,7 +9409,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9423,7 +9420,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9443,7 +9440,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9454,7 +9451,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9474,7 +9471,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9485,7 +9482,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9514,7 +9511,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9543,7 +9540,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9572,7 +9569,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9601,7 +9598,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9630,7 +9627,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9659,7 +9656,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9688,7 +9685,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9717,7 +9714,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9746,7 +9743,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9775,7 +9772,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9804,7 +9801,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9833,7 +9830,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9862,7 +9859,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9891,7 +9888,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9920,7 +9917,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9949,7 +9946,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9978,7 +9975,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -10007,7 +10004,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -10036,7 +10033,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -10065,7 +10062,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -10094,7 +10091,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -10123,7 +10120,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10152,7 +10149,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10181,7 +10178,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10210,7 +10207,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10239,7 +10236,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10268,7 +10265,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10297,7 +10294,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10326,7 +10323,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10355,7 +10352,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12152,16 +12149,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -12208,34 +12205,34 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12249,13 +12246,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>676</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>677</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12264,20 +12261,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>679</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12293,16 +12290,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12318,7 +12315,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12339,7 +12336,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12360,7 +12357,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -14188,7 +14185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14417,10 +14414,10 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="R5" s="5">
         <v>1</v>
@@ -14437,17 +14434,17 @@
         <v>84</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>88</v>
@@ -14475,20 +14472,20 @@
         <v>91</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>91</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -14501,10 +14498,10 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="R7" s="5">
         <v>1</v>
@@ -15083,11 +15080,11 @@
       <c r="J5" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="32" t="s">
+        <v>145</v>
+      </c>
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
@@ -15101,7 +15098,7 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15115,48 +15112,48 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>170</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K6" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="R6" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="S6" s="30" t="s">
         <v>176</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>177</v>
       </c>
       <c r="T6" s="30"/>
       <c r="U6" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="V6" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="W6" s="30" t="s">
         <v>179</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>180</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="30"/>
@@ -15175,42 +15172,42 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>181</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>182</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K7" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="M7" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>185</v>
-      </c>
       <c r="N7" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="R7" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="S7" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -15228,13 +15225,13 @@
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="30" t="s">
         <v>192</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>193</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -15244,14 +15241,14 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -15259,7 +15256,7 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15280,14 +15277,14 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
       <c r="T9" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -15295,24 +15292,24 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>201</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>202</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -15322,14 +15319,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15337,7 +15334,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15540,16 +15537,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15557,16 +15554,16 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15645,321 +15642,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>218</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>219</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>223</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>225</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>226</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>228</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>229</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>234</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>237</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>238</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>244</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>245</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>247</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>248</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>254</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>255</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>259</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>260</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" s="40" t="s">
         <v>262</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -15968,222 +15965,222 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>270</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>274</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>276</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>277</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>281</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>282</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>284</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>285</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>287</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>288</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>290</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>291</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>295</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>296</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>84</v>
@@ -16191,20 +16188,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>84</v>
@@ -16212,20 +16209,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>84</v>
@@ -16234,17 +16231,17 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>84</v>
@@ -16253,13 +16250,13 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
@@ -16272,17 +16269,17 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>84</v>
@@ -16290,20 +16287,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>84</v>
@@ -16312,17 +16309,17 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>84</v>
@@ -16331,17 +16328,17 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>84</v>
@@ -16349,20 +16346,20 @@
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>84</v>
@@ -16370,20 +16367,20 @@
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>84</v>
@@ -16391,20 +16388,20 @@
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>84</v>
@@ -16412,20 +16409,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>84</v>
@@ -16437,14 +16434,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>84</v>
@@ -16452,20 +16449,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>84</v>
@@ -16473,20 +16470,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>84</v>
@@ -16494,20 +16491,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>339</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>84</v>
@@ -16515,20 +16512,20 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>84</v>
@@ -16540,35 +16537,35 @@
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>348</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>84</v>
@@ -16576,7 +16573,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
@@ -16585,32 +16582,32 @@
         <v>154</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>84</v>
@@ -16622,14 +16619,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>84</v>
@@ -16637,20 +16634,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>84</v>
@@ -16658,20 +16655,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>84</v>
@@ -16679,20 +16676,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>84</v>
@@ -16700,20 +16697,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>84</v>
@@ -16721,20 +16718,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>84</v>
@@ -16742,20 +16739,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>84</v>
@@ -16763,20 +16760,20 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
@@ -16784,41 +16781,41 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>381</v>
-      </c>
       <c r="C61" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>84</v>
@@ -16827,17 +16824,17 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>84</v>
@@ -16846,17 +16843,17 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>84</v>
@@ -16865,17 +16862,17 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>84</v>
@@ -16884,17 +16881,17 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>84</v>
@@ -16903,17 +16900,17 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>84</v>
@@ -16921,20 +16918,20 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>400</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>84</v>
@@ -16943,17 +16940,17 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>84</v>
@@ -16962,17 +16959,17 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>84</v>
@@ -16980,20 +16977,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>409</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>84</v>
@@ -17001,20 +16998,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>84</v>
@@ -17022,20 +17019,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>84</v>
@@ -17043,22 +17040,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>84</v>
@@ -17066,22 +17063,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C74" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>420</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>84</v>
@@ -17089,20 +17086,20 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>84</v>
@@ -17110,20 +17107,20 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>84</v>
@@ -17131,20 +17128,20 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>84</v>
@@ -17153,17 +17150,17 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>84</v>
@@ -17171,22 +17168,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>84</v>
@@ -17194,22 +17191,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C80" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>84</v>
@@ -17217,22 +17214,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>84</v>
@@ -17240,22 +17237,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>447</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>84</v>
@@ -17267,14 +17264,14 @@
         <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>84</v>
@@ -17282,22 +17279,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>452</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>453</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>84</v>
@@ -17305,22 +17302,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>84</v>
@@ -17328,20 +17325,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>455</v>
-      </c>
       <c r="C86" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>84</v>
@@ -17349,20 +17346,20 @@
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>455</v>
-      </c>
       <c r="C87" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>84</v>
@@ -17408,321 +17405,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>216</v>
-      </c>
       <c r="G4" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>218</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>219</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>223</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>225</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>226</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>228</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>229</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>234</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>237</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>238</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>244</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>245</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>247</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>248</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>254</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>255</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>259</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>260</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>262</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -17731,220 +17728,220 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>270</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>274</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>276</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>277</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>281</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>282</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>284</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>285</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>287</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>288</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>290</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>291</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>295</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>296</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>466</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>467</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>90</v>
@@ -17953,17 +17950,17 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C31" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>468</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>469</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>90</v>
@@ -17972,17 +17969,17 @@
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C32" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>470</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>471</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
@@ -17991,17 +17988,17 @@
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C33" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>472</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>473</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
@@ -18010,17 +18007,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C34" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>474</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>475</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
@@ -18028,20 +18025,20 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E35" s="45"/>
       <c r="F35" s="46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>90</v>
@@ -18050,17 +18047,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>479</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>480</v>
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="45" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>90</v>
@@ -18069,17 +18066,17 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C37" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>481</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>482</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
@@ -18088,17 +18085,17 @@
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C38" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>484</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>485</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
@@ -18107,17 +18104,17 @@
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C39" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>487</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>488</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>90</v>
@@ -18125,20 +18122,20 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>490</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>491</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>90</v>
@@ -18147,17 +18144,17 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>141</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
@@ -18166,17 +18163,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C42" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>494</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>495</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
@@ -18185,17 +18182,17 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>90</v>
@@ -18204,17 +18201,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C44" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>498</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>499</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>90</v>
@@ -18222,20 +18219,20 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
@@ -18243,22 +18240,22 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E46" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>504</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>505</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
@@ -18266,20 +18263,20 @@
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
@@ -18287,20 +18284,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
@@ -18308,20 +18305,20 @@
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>511</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>90</v>
@@ -18329,20 +18326,20 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>514</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>515</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>90</v>
@@ -18354,14 +18351,14 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>518</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>90</v>
@@ -18373,14 +18370,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>519</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>520</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>90</v>
@@ -18388,20 +18385,20 @@
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
+        <v>576</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>577</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>578</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>90</v>
@@ -18409,22 +18406,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>581</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>582</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>90</v>
@@ -18432,22 +18429,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="E55" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>584</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>585</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>90</v>
@@ -18455,20 +18452,20 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="46" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>90</v>
@@ -18476,20 +18473,20 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A57" s="48" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>700</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>701</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="46" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>90</v>
@@ -18497,20 +18494,20 @@
     </row>
     <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>524</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>525</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>90</v>
@@ -18519,17 +18516,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="45"/>
       <c r="B59" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="D59" s="45" t="s">
         <v>389</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>390</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
@@ -18538,17 +18535,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="45"/>
       <c r="B60" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>90</v>
@@ -18557,17 +18554,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="45"/>
       <c r="B61" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>90</v>
@@ -18576,13 +18573,13 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C62" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="45"/>
       <c r="F62" s="46" t="s">
@@ -18595,17 +18592,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>90</v>
@@ -18613,20 +18610,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>399</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>400</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>90</v>
@@ -18635,17 +18632,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>90</v>
@@ -18654,17 +18651,17 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>530</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>531</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="46" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>90</v>
@@ -18673,17 +18670,17 @@
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="45"/>
       <c r="B67" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C67" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>533</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>534</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>90</v>
@@ -18691,20 +18688,20 @@
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>90</v>
@@ -18712,20 +18709,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C69" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>538</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>539</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>90</v>
@@ -18733,22 +18730,22 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>696</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="E70" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F70" s="46" t="s">
         <v>697</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>698</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>90</v>
@@ -18756,22 +18753,22 @@
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C71" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="46" t="s">
         <v>541</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" s="46" t="s">
-        <v>542</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>90</v>
@@ -18779,20 +18776,20 @@
     </row>
     <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C72" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>543</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>544</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>90</v>
@@ -18800,22 +18797,22 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>90</v>
@@ -18823,22 +18820,22 @@
     </row>
     <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="E74" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F74" s="46" t="s">
         <v>548</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>549</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>90</v>
@@ -18846,22 +18843,22 @@
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>550</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="E75" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>551</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>552</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -18869,22 +18866,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C76" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" s="46" t="s">
         <v>553</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>554</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>90</v>
@@ -18892,22 +18889,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C77" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="E77" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="46" t="s">
         <v>569</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>570</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>90</v>
@@ -18915,22 +18912,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C78" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="46" t="s">
         <v>555</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F78" s="46" t="s">
-        <v>556</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>90</v>
@@ -18938,20 +18935,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B79" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>557</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="45" t="s">
         <v>558</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>559</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>90</v>
@@ -18959,22 +18956,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>441</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>442</v>
-      </c>
       <c r="E80" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>90</v>
@@ -18982,22 +18979,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="E81" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" s="46" t="s">
         <v>575</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>576</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>90</v>
@@ -19005,22 +19002,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="E82" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="46" t="s">
         <v>522</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>523</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>90</v>
@@ -19028,22 +19025,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B83" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C83" s="45" t="s">
         <v>444</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="D83" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>446</v>
-      </c>
       <c r="E83" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>90</v>
@@ -19051,22 +19048,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="D84" s="45" t="s">
-        <v>452</v>
-      </c>
       <c r="E84" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>90</v>
@@ -19074,22 +19071,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B85" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="C85" s="45" t="s">
         <v>564</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="D85" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="E85" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>566</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>567</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>90</v>
@@ -19097,22 +19094,22 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="E86" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F86" s="46" t="s">
         <v>572</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>573</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>90</v>
@@ -19170,16 +19167,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -19250,58 +19247,58 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19313,39 +19310,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>601</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>602</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19365,7 +19362,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19373,14 +19370,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19400,7 +19397,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19411,7 +19408,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19431,7 +19428,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19442,7 +19439,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19462,7 +19459,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22093,16 +22090,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -22173,58 +22170,58 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22239,16 +22236,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -22261,30 +22258,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>630</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22304,26 +22301,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>634</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22343,7 +22340,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22354,7 +22351,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22374,7 +22371,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22385,7 +22382,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22405,7 +22402,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22416,7 +22413,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22445,7 +22442,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22474,7 +22471,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22503,7 +22500,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22532,7 +22529,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22561,7 +22558,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22590,7 +22587,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22619,7 +22616,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22648,7 +22645,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22677,7 +22674,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22706,7 +22703,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22735,7 +22732,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22764,7 +22761,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22793,7 +22790,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22822,7 +22819,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22851,7 +22848,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22880,7 +22877,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22909,7 +22906,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22938,7 +22935,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22967,7 +22964,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -22996,7 +22993,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -23025,7 +23022,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -23054,7 +23051,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -23083,7 +23080,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -23112,7 +23109,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -23141,7 +23138,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -23170,7 +23167,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -23199,7 +23196,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -23228,7 +23225,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -23257,7 +23254,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23286,7 +23283,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -25091,16 +25088,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -25147,34 +25144,34 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25185,24 +25182,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>676</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>677</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>679</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25218,16 +25215,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25243,7 +25240,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -25264,7 +25261,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25285,7 +25282,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
